--- a/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
+++ b/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/Export/WorkingSheetArchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB43BE6-682C-4A6C-847A-8D3CB6A26E6B}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A05B0CA-D32A-4B95-9946-9E299E8CA702}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Fundamentals_Remaining" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fundamentals_Remaining!$A$1:$N$1769</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fundamentals_Remaining!$A$1:$O$1769</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="3639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="3641">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -10619,9 +10619,6 @@
   </si>
   <si>
     <t>aa1</t>
-  </si>
-  <si>
-    <t>likely to do w/ dividends.  Not much variation in feature</t>
   </si>
   <si>
     <t>keep -- might be able to be used to check restatements</t>
@@ -10963,6 +10960,15 @@
   </si>
   <si>
     <t>see here for code explanation: https://tevgeniou.github.io/EquityRiskFactors/CompustatManualChpt5.pdf</t>
+  </si>
+  <si>
+    <t>AMIE</t>
+  </si>
+  <si>
+    <t>Get from Securities</t>
+  </si>
+  <si>
+    <t>Get from ratings</t>
   </si>
 </sst>
 </file>
@@ -10997,7 +11003,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11031,6 +11037,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11080,7 +11098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11101,6 +11119,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11440,10 +11470,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N1769"/>
+  <dimension ref="A1:O1769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="D559" sqref="D559"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11452,16 +11483,17 @@
     <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="50.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11477,26 +11509,29 @@
       <c r="F1" s="3" t="s">
         <v>3520</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>3638</v>
+      </c>
+      <c r="J1" t="s">
         <v>3521</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3522</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3523</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3524</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>3525</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>3526</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11512,8 +11547,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11526,8 +11564,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11543,8 +11584,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11558,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11572,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11586,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -11599,8 +11643,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11616,8 +11663,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11631,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11645,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -11662,7 +11712,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -11676,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -11690,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -11710,10 +11760,13 @@
         <v>3527</v>
       </c>
       <c r="G15" t="s">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3639</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -11733,10 +11786,13 @@
         <v>3527</v>
       </c>
       <c r="G16" t="s">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3639</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -11750,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -11764,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11778,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11795,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11812,7 +11868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11826,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11840,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11854,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11868,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11882,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11896,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11910,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11924,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11941,13 +11997,13 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
+        <v>3528</v>
+      </c>
+      <c r="I30" t="s">
         <v>3529</v>
       </c>
-      <c r="H30" t="s">
-        <v>3530</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11961,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12076,10 +12132,10 @@
         <v>4.3</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>3531</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>3532</v>
       </c>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -12099,10 +12155,10 @@
         <v>4.3</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>3531</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>3532</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -12122,10 +12178,10 @@
         <v>4.3</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>3531</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>3532</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -12145,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -12165,10 +12221,10 @@
         <v>4.3</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>3531</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>3532</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -12342,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -12418,10 +12474,10 @@
         <v>4.3</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>3531</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>3532</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -12441,7 +12497,7 @@
         <v>4.5</v>
       </c>
       <c r="G61" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -12486,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -12500,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -12517,10 +12573,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>3531</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -12537,13 +12593,13 @@
         <v>4.3</v>
       </c>
       <c r="F67" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>3531</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -12560,13 +12616,13 @@
         <v>4.3</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>3531</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -12583,13 +12639,13 @@
         <v>4.3</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>3531</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -12603,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -12620,20 +12676,20 @@
         <v>4.3</v>
       </c>
       <c r="F71" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>3531</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O71" s="4"/>
+    </row>
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -12647,10 +12703,10 @@
         <v>0</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>3531</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -12667,18 +12723,18 @@
         <v>1</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
-    </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O73" s="4"/>
+    </row>
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -12695,20 +12751,20 @@
         <v>4.3</v>
       </c>
       <c r="F74" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>3531</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
-    </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O74" s="4"/>
+    </row>
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -12725,20 +12781,20 @@
         <v>4.3</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>3531</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
-    </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -12752,10 +12808,10 @@
         <v>0</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>3531</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -12769,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -12783,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -12797,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -12811,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -12828,18 +12884,18 @@
         <v>1</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
-    </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O81" s="4"/>
+    </row>
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -12853,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -12867,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -12881,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -12895,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12909,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12923,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12937,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12951,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12965,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12979,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12993,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13007,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -13024,18 +13080,21 @@
         <v>1</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="H94" s="13">
+        <v>1</v>
+      </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
-    </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O94" s="4"/>
+    </row>
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13049,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -13063,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -13077,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13091,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -13105,7 +13164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -13119,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -13133,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -13147,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -13161,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -13175,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -13189,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -13203,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -13217,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -13231,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -13245,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -13261,11 +13320,11 @@
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="H110" t="s">
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -13279,7 +13338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -13293,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -13307,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -13321,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -13335,44 +13394,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+    <row r="116" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="16">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="17" t="s">
         <v>1884</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="17">
         <v>1</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="17">
         <v>2</v>
       </c>
-      <c r="F116" t="s">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="F116" s="17" t="s">
+        <v>3534</v>
+      </c>
+      <c r="H116" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="16">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="17" t="s">
         <v>1885</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="17">
         <v>1</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H117" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -13389,16 +13454,16 @@
         <v>4.5</v>
       </c>
       <c r="F118" t="s">
+        <v>3534</v>
+      </c>
+      <c r="G118" t="s">
         <v>3535</v>
       </c>
-      <c r="G118" t="s">
+      <c r="I118" t="s">
         <v>3536</v>
       </c>
-      <c r="H118" t="s">
-        <v>3537</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -13412,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -13426,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -13440,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -13454,30 +13519,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+    <row r="123" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="16">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="17" t="s">
         <v>1891</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="17">
         <v>1</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="17">
         <v>1</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="17" t="s">
+        <v>3537</v>
+      </c>
+      <c r="G123" s="17" t="s">
         <v>3538</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>3539</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H123" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -13494,34 +13562,33 @@
         <v>4.3</v>
       </c>
       <c r="F124" s="4" t="s">
+        <v>3537</v>
+      </c>
+      <c r="G124" s="4" t="s">
         <v>3538</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>3539</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+    </row>
+    <row r="125" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="16">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="17" t="s">
         <v>1893</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="17">
         <v>1</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="17">
         <v>1</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>3538</v>
-      </c>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="17" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -13535,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -13549,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -13563,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -13577,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -13591,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -13605,7 +13672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -13619,7 +13686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -13633,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -13649,11 +13716,11 @@
       <c r="E134">
         <v>1</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -13670,7 +13737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -13686,11 +13753,11 @@
       <c r="E136">
         <v>1</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -13704,7 +13771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -13721,16 +13788,19 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
+        <v>3539</v>
+      </c>
+      <c r="G138" t="s">
         <v>3540</v>
       </c>
-      <c r="G138" t="s">
-        <v>3541</v>
-      </c>
-      <c r="H138">
+      <c r="H138" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -13747,16 +13817,16 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
+        <v>3539</v>
+      </c>
+      <c r="G139" t="s">
         <v>3540</v>
       </c>
-      <c r="G139" t="s">
-        <v>3541</v>
-      </c>
-      <c r="H139">
+      <c r="I139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -13773,17 +13843,17 @@
         <v>4</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
-    </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N140" s="4"/>
+    </row>
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -13800,17 +13870,17 @@
         <v>4</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
-    </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N141" s="4"/>
+    </row>
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -13827,17 +13897,17 @@
         <v>4</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
-    </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N142" s="4"/>
+    </row>
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -13854,17 +13924,17 @@
         <v>4</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
-    </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -13881,17 +13951,17 @@
         <v>4</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
-    </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -13908,17 +13978,17 @@
         <v>4</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
-    </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -13935,17 +14005,17 @@
         <v>4</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
-    </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N146" s="4"/>
+    </row>
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -13959,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -13973,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -13987,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -14001,7 +14071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -14015,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -14029,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -14043,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -14057,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -14071,7 +14141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -14085,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -14099,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -14113,7 +14183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -14127,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -14141,7 +14211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -14155,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14172,7 +14242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14186,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -14200,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -14214,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -14228,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -14242,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -14256,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -14270,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -14287,20 +14357,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F170" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G170" s="4" t="s">
         <v>3542</v>
       </c>
-      <c r="G170" s="4" t="s">
-        <v>3543</v>
-      </c>
-      <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
-    </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O170" s="4"/>
+    </row>
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -14317,20 +14387,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F171" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G171" s="4" t="s">
         <v>3542</v>
       </c>
-      <c r="G171" s="4" t="s">
-        <v>3543</v>
-      </c>
-      <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
-    </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O171" s="4"/>
+    </row>
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -14347,20 +14417,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F172" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G172" s="4" t="s">
         <v>3542</v>
       </c>
-      <c r="G172" s="4" t="s">
-        <v>3543</v>
-      </c>
-      <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O172" s="4"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -14377,20 +14447,20 @@
         <v>1</v>
       </c>
       <c r="F173" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>3542</v>
       </c>
-      <c r="G173" s="4" t="s">
-        <v>3543</v>
-      </c>
-      <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
-    </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O173" s="4"/>
+    </row>
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -14404,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -14418,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -14432,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -14446,7 +14516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -14460,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -14474,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -14491,20 +14561,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F180" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G180" s="4" t="s">
         <v>3542</v>
       </c>
-      <c r="G180" s="4" t="s">
-        <v>3543</v>
-      </c>
-      <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
-    </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O180" s="4"/>
+    </row>
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -14521,20 +14591,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F181" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G181" s="4" t="s">
         <v>3542</v>
       </c>
-      <c r="G181" s="4" t="s">
-        <v>3543</v>
-      </c>
-      <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
-    </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O181" s="4"/>
+    </row>
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -14551,20 +14621,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F182" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>3542</v>
       </c>
-      <c r="G182" s="4" t="s">
-        <v>3543</v>
-      </c>
-      <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
-    </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O182" s="4"/>
+    </row>
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -14578,7 +14648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -14596,18 +14666,18 @@
       </c>
       <c r="F184" s="5"/>
       <c r="G184" t="s">
+        <v>3543</v>
+      </c>
+      <c r="I184" t="s">
         <v>3544</v>
       </c>
-      <c r="H184" t="s">
-        <v>3545</v>
-      </c>
-      <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
-    </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N184" s="5"/>
+    </row>
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -14624,18 +14694,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
-    </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O185" s="6"/>
+    </row>
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -14652,20 +14722,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F186" s="6" t="s">
+        <v>3545</v>
+      </c>
+      <c r="G186" s="6" t="s">
         <v>3546</v>
       </c>
-      <c r="G186" s="6" t="s">
-        <v>3547</v>
-      </c>
-      <c r="H186" s="6"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O186" s="6"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -14682,20 +14752,20 @@
         <v>1</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>3548</v>
-      </c>
-      <c r="H187" s="6"/>
+        <v>3547</v>
+      </c>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
-    </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O187" s="6"/>
+    </row>
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -14709,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -14726,20 +14796,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>3549</v>
-      </c>
-      <c r="H189" s="6"/>
+        <v>3548</v>
+      </c>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
-    </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O189" s="6"/>
+    </row>
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -14756,20 +14826,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>3549</v>
-      </c>
-      <c r="H190" s="6"/>
+        <v>3548</v>
+      </c>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
-    </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O190" s="6"/>
+    </row>
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -14786,20 +14856,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>3549</v>
-      </c>
-      <c r="H191" s="6"/>
+        <v>3548</v>
+      </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
-    </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O191" s="6"/>
+    </row>
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -14816,20 +14886,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>3549</v>
-      </c>
-      <c r="H192" s="6"/>
+        <v>3548</v>
+      </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
-    </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O192" s="6"/>
+    </row>
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -14846,20 +14916,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>3550</v>
-      </c>
-      <c r="H193" s="6"/>
+        <v>3549</v>
+      </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
-    </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O193" s="6"/>
+    </row>
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -14876,20 +14946,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>3550</v>
-      </c>
-      <c r="H194" s="6"/>
+        <v>3549</v>
+      </c>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
-    </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O194" s="6"/>
+    </row>
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -14903,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -14917,7 +14987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -14931,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -14945,7 +15015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -14959,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -14973,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -14987,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -15004,13 +15074,13 @@
         <v>4.5</v>
       </c>
       <c r="F202" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="G202" t="s">
-        <v>3544</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -15027,16 +15097,16 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
+        <v>3550</v>
+      </c>
+      <c r="G203" t="s">
         <v>3551</v>
       </c>
-      <c r="G203" t="s">
+      <c r="I203" t="s">
         <v>3552</v>
       </c>
-      <c r="H203" t="s">
-        <v>3553</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -15053,20 +15123,20 @@
         <v>1</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>3554</v>
-      </c>
-      <c r="H204" s="6"/>
+        <v>3553</v>
+      </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
       <c r="N204" s="6"/>
-    </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O204" s="6"/>
+    </row>
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -15080,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -15097,18 +15167,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
       <c r="M206" s="6"/>
       <c r="N206" s="6"/>
-    </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O206" s="6"/>
+    </row>
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -15125,18 +15195,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
       <c r="N207" s="6"/>
-    </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O207" s="6"/>
+    </row>
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -15150,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -15167,18 +15237,18 @@
         <v>1</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
-    </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O209" s="6"/>
+    </row>
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -15192,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -15209,18 +15279,21 @@
         <v>1</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
+      <c r="H211" s="13">
+        <v>1</v>
+      </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
       <c r="N211" s="6"/>
-    </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O211" s="6"/>
+    </row>
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -15237,18 +15310,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G212" s="6"/>
-      <c r="H212" s="6"/>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
       <c r="N212" s="6"/>
-    </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O212" s="6"/>
+    </row>
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -15265,18 +15338,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G213" s="6"/>
-      <c r="H213" s="6"/>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
       <c r="N213" s="6"/>
-    </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O213" s="6"/>
+    </row>
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -15293,13 +15366,13 @@
         <v>4.5</v>
       </c>
       <c r="F214" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G214" t="s">
-        <v>3544</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -15316,13 +15389,13 @@
         <v>4.5</v>
       </c>
       <c r="F215" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G215" t="s">
-        <v>3544</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -15339,16 +15412,16 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
+        <v>3555</v>
+      </c>
+      <c r="G216" t="s">
         <v>3556</v>
       </c>
-      <c r="G216" t="s">
-        <v>3557</v>
-      </c>
-      <c r="H216">
+      <c r="I216">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -15362,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -15376,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -15390,7 +15463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -15404,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -15418,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -15432,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -15446,7 +15519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -15460,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -15477,16 +15550,19 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G225" t="s">
-        <v>3558</v>
-      </c>
-      <c r="H225">
+        <v>3557</v>
+      </c>
+      <c r="H225" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -15503,13 +15579,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F226" t="s">
+        <v>3555</v>
+      </c>
+      <c r="G226" t="s">
         <v>3556</v>
       </c>
-      <c r="G226" t="s">
-        <v>3557</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -15523,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -15537,7 +15613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -15551,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -15565,7 +15641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -15579,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -15593,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -15607,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -15621,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -15638,13 +15714,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F235" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G235" t="s">
-        <v>3558</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -15658,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -15672,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -15686,22 +15762,22 @@
         <v>0</v>
       </c>
       <c r="E238" s="7" t="s">
+        <v>3558</v>
+      </c>
+      <c r="F238" s="7" t="s">
         <v>3559</v>
       </c>
-      <c r="F238" s="7" t="s">
+      <c r="G238" s="7" t="s">
         <v>3560</v>
       </c>
-      <c r="G238" s="7" t="s">
+      <c r="I238" s="7">
+        <v>1</v>
+      </c>
+      <c r="J238" s="8" t="s">
         <v>3561</v>
       </c>
-      <c r="H238" s="7">
-        <v>1</v>
-      </c>
-      <c r="I238" s="8" t="s">
-        <v>3562</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -15715,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -15729,19 +15805,22 @@
         <v>0</v>
       </c>
       <c r="E240" s="7" t="s">
+        <v>3558</v>
+      </c>
+      <c r="F240" s="7" t="s">
         <v>3559</v>
       </c>
-      <c r="F240" s="7" t="s">
+      <c r="G240" s="7" t="s">
         <v>3560</v>
       </c>
-      <c r="G240" s="7" t="s">
-        <v>3561</v>
-      </c>
-      <c r="H240" s="7">
+      <c r="H240" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I240" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -15758,20 +15837,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>3563</v>
-      </c>
-      <c r="H241" s="6"/>
+        <v>3562</v>
+      </c>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
       <c r="N241" s="6"/>
-    </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O241" s="6"/>
+    </row>
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -15785,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -15799,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -15813,7 +15892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -15827,7 +15906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -15844,20 +15923,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>3564</v>
-      </c>
-      <c r="H246" s="6"/>
+        <v>3563</v>
+      </c>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
       <c r="N246" s="6"/>
-    </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O246" s="6"/>
+    </row>
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -15874,13 +15953,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F247" t="s">
+        <v>3564</v>
+      </c>
+      <c r="G247" t="s">
         <v>3565</v>
       </c>
-      <c r="G247" t="s">
-        <v>3566</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -15897,16 +15976,16 @@
         <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="G248" t="s">
-        <v>3567</v>
-      </c>
-      <c r="H248">
+        <v>3566</v>
+      </c>
+      <c r="I248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -15920,7 +15999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -15937,10 +16016,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F250" t="s">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -15957,10 +16036,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F251" t="s">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -15974,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -15988,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -16002,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -16016,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -16030,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -16044,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -16061,16 +16140,19 @@
         <v>1</v>
       </c>
       <c r="F258" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="G258" t="s">
-        <v>3568</v>
-      </c>
-      <c r="H258">
+        <v>3567</v>
+      </c>
+      <c r="H258" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -16084,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -16098,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -16112,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -16126,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -16140,7 +16222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -16157,7 +16239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -16174,7 +16256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -16188,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -16202,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -16219,13 +16301,13 @@
         <v>4.5</v>
       </c>
       <c r="G268" t="s">
+        <v>3568</v>
+      </c>
+      <c r="I268" t="s">
         <v>3569</v>
       </c>
-      <c r="H268" t="s">
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -16242,13 +16324,13 @@
         <v>1</v>
       </c>
       <c r="F269" t="s">
+        <v>3570</v>
+      </c>
+      <c r="G269" t="s">
         <v>3571</v>
       </c>
-      <c r="G269" t="s">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -16265,13 +16347,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F270" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="G270" t="s">
-        <v>3573</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -16288,16 +16370,16 @@
         <v>1</v>
       </c>
       <c r="F271" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="G271" t="s">
-        <v>3574</v>
-      </c>
-      <c r="H271">
+        <v>3573</v>
+      </c>
+      <c r="I271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -16314,20 +16396,21 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>3573</v>
-      </c>
-      <c r="H272" s="9"/>
+        <v>3572</v>
+      </c>
+      <c r="H272" s="14"/>
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
       <c r="K272" s="9"/>
       <c r="L272" s="9"/>
       <c r="M272" s="9"/>
       <c r="N272" s="9"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O272" s="9"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -16344,16 +16427,19 @@
         <v>1</v>
       </c>
       <c r="F273" t="s">
+        <v>3574</v>
+      </c>
+      <c r="H273" s="13">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273" t="s">
         <v>3575</v>
       </c>
-      <c r="H273">
-        <v>1</v>
-      </c>
-      <c r="I273" t="s">
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -16367,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -16384,13 +16470,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F275" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="G275" t="s">
-        <v>3577</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -16404,7 +16490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -16421,13 +16507,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F277" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="G277" t="s">
-        <v>3577</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -16444,10 +16530,10 @@
         <v>4.5</v>
       </c>
       <c r="G278" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -16464,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -16478,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -16495,10 +16581,10 @@
         <v>4.5</v>
       </c>
       <c r="G281" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -16512,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -16529,13 +16615,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F283" t="s">
+        <v>3577</v>
+      </c>
+      <c r="G283" t="s">
         <v>3578</v>
       </c>
-      <c r="G283" t="s">
-        <v>3579</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -16549,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -16563,7 +16649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -16577,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -16594,13 +16680,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F287" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="G287" t="s">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -16729,10 +16815,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F296" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G296" t="s">
         <v>3581</v>
-      </c>
-      <c r="G296" t="s">
-        <v>3582</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -16752,10 +16838,10 @@
         <v>1</v>
       </c>
       <c r="F297" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="G297" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -16775,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="F298" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -16795,10 +16881,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F299" t="s">
+        <v>3583</v>
+      </c>
+      <c r="G299" t="s">
         <v>3584</v>
-      </c>
-      <c r="G299" t="s">
-        <v>3585</v>
       </c>
     </row>
     <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -16905,7 +16991,7 @@
         <v>194</v>
       </c>
       <c r="G306" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -17104,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17118,7 +17204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17132,7 +17218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17148,8 +17234,11 @@
       <c r="E323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H323" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17163,7 +17252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17177,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17191,7 +17280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17205,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17219,7 +17308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -17233,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -17247,7 +17336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -17261,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -17275,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -17289,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -17303,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -17317,7 +17406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -17331,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -17345,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -17359,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -17373,7 +17462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -17387,7 +17476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -17401,7 +17490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -17415,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -17429,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -17443,7 +17532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -17457,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -17471,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -17485,7 +17574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -17499,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -17513,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -17527,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -17541,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -17558,13 +17647,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="G352" t="s">
-        <v>3573</v>
-      </c>
-      <c r="H352" s="4">
-        <v>1</v>
+        <v>3572</v>
       </c>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
@@ -17572,8 +17658,9 @@
       <c r="L352" s="4"/>
       <c r="M352" s="4"/>
       <c r="N352" s="4"/>
-    </row>
-    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O352" s="4"/>
+    </row>
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -17590,20 +17677,20 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="G353" t="s">
-        <v>3573</v>
-      </c>
-      <c r="H353" s="4"/>
+        <v>3572</v>
+      </c>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
       <c r="K353" s="4"/>
       <c r="L353" s="4"/>
       <c r="M353" s="4"/>
       <c r="N353" s="4"/>
-    </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O353" s="4"/>
+    </row>
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -17617,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -17634,20 +17721,20 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="G355" t="s">
-        <v>3573</v>
-      </c>
-      <c r="H355" s="4"/>
+        <v>3572</v>
+      </c>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
       <c r="K355" s="4"/>
       <c r="L355" s="4"/>
       <c r="M355" s="4"/>
       <c r="N355" s="4"/>
-    </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O355" s="4"/>
+    </row>
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -17664,20 +17751,20 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="G356" t="s">
-        <v>3573</v>
-      </c>
-      <c r="H356" s="4"/>
+        <v>3572</v>
+      </c>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
       <c r="K356" s="4"/>
       <c r="L356" s="4"/>
       <c r="M356" s="4"/>
       <c r="N356" s="4"/>
-    </row>
-    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O356" s="4"/>
+    </row>
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -17691,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -17708,20 +17795,20 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="G358" t="s">
-        <v>3573</v>
-      </c>
-      <c r="H358" s="4"/>
+        <v>3572</v>
+      </c>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
       <c r="L358" s="4"/>
       <c r="M358" s="4"/>
       <c r="N358" s="4"/>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O358" s="4"/>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -17737,8 +17824,11 @@
       <c r="E359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H359" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -17752,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -17766,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -17780,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -17794,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -17808,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -17822,7 +17912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -17836,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -17850,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -17864,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -17881,10 +17971,10 @@
         <v>1</v>
       </c>
       <c r="F369" t="s">
-        <v>3588</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -17901,13 +17991,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F370" t="s">
+        <v>3587</v>
+      </c>
+      <c r="G370" t="s">
         <v>3588</v>
       </c>
-      <c r="G370" t="s">
-        <v>3589</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -17924,13 +18014,13 @@
         <v>4.3</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="G371" s="4" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -17947,14 +18037,14 @@
         <v>1</v>
       </c>
       <c r="F372" s="4" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="G372" s="4"/>
-      <c r="H372">
+      <c r="I372">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -17971,10 +18061,10 @@
         <v>1</v>
       </c>
       <c r="F373" t="s">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -17988,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -18002,7 +18092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -18016,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -18030,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -18044,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -18058,7 +18148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -18072,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -18089,10 +18179,10 @@
         <v>1</v>
       </c>
       <c r="F381" t="s">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -18106,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -18120,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -18582,7 +18672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -18596,7 +18686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -18610,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -18624,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -18638,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -18652,7 +18742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -18666,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -18680,7 +18770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -18694,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -18708,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -18722,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -18736,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -18750,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -18764,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -18781,14 +18871,14 @@
         <v>4.3</v>
       </c>
       <c r="F430" s="4" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="G430" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H430" s="4"/>
-    </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+      <c r="I430" s="4"/>
+    </row>
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -18805,14 +18895,14 @@
         <v>4.3</v>
       </c>
       <c r="F431" s="4" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="G431" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H431" s="4"/>
-    </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+      <c r="I431" s="4"/>
+    </row>
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -18829,14 +18919,14 @@
         <v>4.3</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H432" s="4"/>
-    </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+      <c r="I432" s="4"/>
+    </row>
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -18853,14 +18943,14 @@
         <v>4.3</v>
       </c>
       <c r="F433" s="4" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H433" s="4"/>
-    </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+      <c r="I433" s="4"/>
+    </row>
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -18874,7 +18964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -18888,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -18905,16 +18995,16 @@
         <v>1</v>
       </c>
       <c r="F436" s="4" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="G436" t="s">
-        <v>3583</v>
-      </c>
-      <c r="H436" s="4">
+        <v>3582</v>
+      </c>
+      <c r="I436" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -18928,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -18945,14 +19035,14 @@
         <v>4.3</v>
       </c>
       <c r="F438" s="4" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="G438" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H438" s="4"/>
-    </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+      <c r="I438" s="4"/>
+    </row>
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -18969,14 +19059,14 @@
         <v>4.3</v>
       </c>
       <c r="F439" s="4" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="G439" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H439" s="4"/>
-    </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+      <c r="I439" s="4"/>
+    </row>
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -18990,7 +19080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -19004,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -19018,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -19032,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -19046,7 +19136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -19060,7 +19150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -19074,7 +19164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -19088,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -19248,7 +19338,7 @@
         <v>4.5</v>
       </c>
       <c r="G458" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19335,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -19349,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -19363,7 +19453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -19377,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -19391,7 +19481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -19405,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -19419,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -19433,7 +19523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -19447,27 +19537,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A473" s="1">
+    <row r="473" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="16">
         <v>471</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C473" s="17" t="s">
         <v>2241</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="17">
         <v>1</v>
       </c>
-      <c r="E473">
+      <c r="E473" s="17">
         <v>1</v>
       </c>
-      <c r="F473" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F473" s="17" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -19481,27 +19571,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A475" s="1">
+    <row r="475" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="16">
         <v>473</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C475" s="17" t="s">
         <v>2243</v>
       </c>
-      <c r="D475">
+      <c r="D475" s="17">
         <v>1</v>
       </c>
-      <c r="E475">
+      <c r="E475" s="17">
         <v>1</v>
       </c>
-      <c r="F475" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F475" s="17" t="s">
+        <v>3592</v>
+      </c>
+      <c r="H475" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -19515,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -19529,7 +19622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -19543,7 +19636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -19560,13 +19653,13 @@
         <v>4.5</v>
       </c>
       <c r="F479" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="G479" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -19583,10 +19676,10 @@
         <v>1</v>
       </c>
       <c r="F480" t="s">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -19603,13 +19696,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F481" t="s">
+        <v>3594</v>
+      </c>
+      <c r="G481" t="s">
         <v>3595</v>
       </c>
-      <c r="G481" t="s">
-        <v>3596</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -19623,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -19637,7 +19730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -19651,7 +19744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -19665,7 +19758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -19679,7 +19772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -19696,13 +19789,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F487" t="s">
+        <v>3594</v>
+      </c>
+      <c r="G487" t="s">
         <v>3595</v>
       </c>
-      <c r="G487" t="s">
-        <v>3596</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -19718,11 +19811,11 @@
       <c r="E488">
         <v>1</v>
       </c>
-      <c r="H488" t="s">
-        <v>3597</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I488" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -19736,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -19750,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -19764,7 +19857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -19778,7 +19871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -19792,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -19809,10 +19902,13 @@
         <v>1</v>
       </c>
       <c r="F494" t="s">
-        <v>3598</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3597</v>
+      </c>
+      <c r="H494" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -19829,13 +19925,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F495" t="s">
+        <v>3597</v>
+      </c>
+      <c r="G495" t="s">
         <v>3598</v>
       </c>
-      <c r="G495" t="s">
-        <v>3599</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -20006,7 +20102,7 @@
         <v>1</v>
       </c>
       <c r="F507" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -20026,10 +20122,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F508" t="s">
+        <v>3599</v>
+      </c>
+      <c r="G508" t="s">
         <v>3600</v>
-      </c>
-      <c r="G508" t="s">
-        <v>3601</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.3">
@@ -20049,7 +20145,7 @@
         <v>1</v>
       </c>
       <c r="G509" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -20094,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -20108,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -20122,7 +20218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -20136,7 +20232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -20150,7 +20246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -20167,13 +20263,13 @@
         <v>1</v>
       </c>
       <c r="F517" t="s">
+        <v>3602</v>
+      </c>
+      <c r="G517" t="s">
         <v>3603</v>
       </c>
-      <c r="G517" t="s">
-        <v>3604</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -20187,7 +20283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -20204,13 +20300,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F519" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="G519" t="s">
-        <v>3605</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3604</v>
+      </c>
+      <c r="H519" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -20227,13 +20326,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F520" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="G520" t="s">
-        <v>3605</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -20250,13 +20349,13 @@
         <v>1</v>
       </c>
       <c r="F521" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="G521" t="s">
-        <v>3606</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -20270,7 +20369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -20284,7 +20383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -20298,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -20312,7 +20411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -20326,7 +20425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -20340,7 +20439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -20357,10 +20456,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F528" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="G528" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -20803,7 +20902,7 @@
         <v>1</v>
       </c>
       <c r="F559" s="4" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="G559" s="4"/>
     </row>
@@ -20824,13 +20923,13 @@
         <v>4.3</v>
       </c>
       <c r="F560" s="4" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="G560" s="4" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -20847,13 +20946,13 @@
         <v>4.3</v>
       </c>
       <c r="F561" s="4" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="G561" s="4" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -20867,7 +20966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -20881,7 +20980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -20895,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -20909,7 +21008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -20923,7 +21022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -20937,7 +21036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -20951,7 +21050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -20965,7 +21064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -20979,7 +21078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -20993,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -21010,13 +21109,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F572" t="s">
+        <v>3608</v>
+      </c>
+      <c r="G572" t="s">
         <v>3609</v>
       </c>
-      <c r="G572" t="s">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -21030,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -21044,7 +21143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -21061,13 +21160,13 @@
         <v>1</v>
       </c>
       <c r="F575" t="s">
+        <v>3610</v>
+      </c>
+      <c r="I575" t="s">
         <v>3611</v>
       </c>
-      <c r="H575" t="s">
-        <v>3612</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -21081,7 +21180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -21095,7 +21194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -21109,7 +21208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -21123,7 +21222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -21137,7 +21236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -21151,7 +21250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -21165,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -21182,13 +21281,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F583" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="G583" t="s">
-        <v>3613</v>
-      </c>
-    </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3612</v>
+      </c>
+      <c r="H583" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -21202,7 +21304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -21216,7 +21318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -21230,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -21244,7 +21346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -21258,7 +21360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -21272,7 +21374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -21286,7 +21388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -21300,7 +21402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -21314,7 +21416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -21331,11 +21433,11 @@
         <v>1</v>
       </c>
       <c r="F593" s="4" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="G593" s="4"/>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -21352,13 +21454,13 @@
         <v>4.3</v>
       </c>
       <c r="F594" s="4" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="G594" s="4" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -21375,13 +21477,13 @@
         <v>4.3</v>
       </c>
       <c r="F595" s="4" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="G595" s="4" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -21395,7 +21497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -21409,7 +21511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -21423,7 +21525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -21440,13 +21542,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F599" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="G599" t="s">
-        <v>3615</v>
-      </c>
-    </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -21463,13 +21565,13 @@
         <v>4.5</v>
       </c>
       <c r="F600" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="G600" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -21483,7 +21585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -21497,7 +21599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -21511,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -21522,19 +21624,19 @@
         <v>2372</v>
       </c>
       <c r="D604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E604">
         <v>4.5</v>
       </c>
       <c r="F604" t="s">
-        <v>3616</v>
-      </c>
-      <c r="G604" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3615</v>
+      </c>
+      <c r="H604" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -21548,7 +21650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -21562,7 +21664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -21576,7 +21678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -21607,10 +21709,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F609" t="s">
+        <v>3615</v>
+      </c>
+      <c r="G609" t="s">
         <v>3616</v>
-      </c>
-      <c r="G609" t="s">
-        <v>3617</v>
       </c>
     </row>
     <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -21823,7 +21925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -21837,7 +21939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -21851,7 +21953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -21865,7 +21967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -21879,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -21893,7 +21995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -21907,7 +22009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -21921,7 +22023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -21938,13 +22040,16 @@
         <v>1</v>
       </c>
       <c r="F632" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="G632" t="s">
-        <v>3574</v>
-      </c>
-    </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3573</v>
+      </c>
+      <c r="H632" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -21958,19 +22063,19 @@
         <v>0</v>
       </c>
       <c r="E633" s="4" t="s">
+        <v>3617</v>
+      </c>
+      <c r="F633" t="s">
+        <v>3586</v>
+      </c>
+      <c r="G633" s="4" t="s">
         <v>3618</v>
       </c>
-      <c r="F633" t="s">
-        <v>3587</v>
-      </c>
-      <c r="G633" s="4" t="s">
-        <v>3619</v>
-      </c>
-      <c r="H633">
+      <c r="I633">
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -21984,19 +22089,19 @@
         <v>0</v>
       </c>
       <c r="E634" s="4" t="s">
+        <v>3617</v>
+      </c>
+      <c r="F634" t="s">
+        <v>3586</v>
+      </c>
+      <c r="G634" s="4" t="s">
         <v>3618</v>
       </c>
-      <c r="F634" t="s">
-        <v>3587</v>
-      </c>
-      <c r="G634" s="4" t="s">
-        <v>3619</v>
-      </c>
-      <c r="H634">
+      <c r="I634">
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -22013,7 +22118,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -22030,7 +22135,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -22044,7 +22149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -22060,8 +22165,11 @@
       <c r="E638" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H638" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -22075,19 +22183,19 @@
         <v>0</v>
       </c>
       <c r="E639" s="4" t="s">
+        <v>3617</v>
+      </c>
+      <c r="F639" t="s">
+        <v>3586</v>
+      </c>
+      <c r="G639" s="4" t="s">
         <v>3618</v>
       </c>
-      <c r="F639" t="s">
-        <v>3587</v>
-      </c>
-      <c r="G639" s="4" t="s">
-        <v>3619</v>
-      </c>
-      <c r="H639">
+      <c r="I639">
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -22104,7 +22212,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -22118,7 +22226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -22132,7 +22240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -22149,10 +22257,10 @@
         <v>4.2</v>
       </c>
       <c r="F643" t="s">
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -22166,7 +22274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -22183,13 +22291,16 @@
         <v>1</v>
       </c>
       <c r="G645" t="s">
-        <v>3620</v>
-      </c>
-      <c r="H645">
+        <v>3619</v>
+      </c>
+      <c r="H645" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -22203,7 +22314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -22217,7 +22328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -22231,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -22245,7 +22356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -22259,7 +22370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -22273,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -22287,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -22301,7 +22412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -22315,7 +22426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -22329,7 +22440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -22567,7 +22678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -22581,7 +22692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -22595,7 +22706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -22612,10 +22723,13 @@
         <v>4.2</v>
       </c>
       <c r="G675" t="s">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3620</v>
+      </c>
+      <c r="H675" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -22629,7 +22743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -22643,7 +22757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -22657,7 +22771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -22671,7 +22785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -22685,7 +22799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -22699,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -22713,7 +22827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -22730,10 +22844,10 @@
         <v>1</v>
       </c>
       <c r="F683" t="s">
-        <v>3622</v>
-      </c>
-    </row>
-    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -22750,13 +22864,13 @@
         <v>4.5</v>
       </c>
       <c r="F684" t="s">
+        <v>3621</v>
+      </c>
+      <c r="G684" t="s">
         <v>3622</v>
       </c>
-      <c r="G684" t="s">
-        <v>3623</v>
-      </c>
-    </row>
-    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -22770,7 +22884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -22784,7 +22898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -22798,7 +22912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -22812,7 +22926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -22828,8 +22942,11 @@
       <c r="E689">
         <v>1</v>
       </c>
-    </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H689" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -22846,13 +22963,16 @@
         <v>1</v>
       </c>
       <c r="F690" s="4" t="s">
-        <v>3624</v>
-      </c>
-      <c r="H690">
+        <v>3623</v>
+      </c>
+      <c r="H690" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -22869,16 +22989,16 @@
         <v>4.2</v>
       </c>
       <c r="F691" s="4" t="s">
+        <v>3623</v>
+      </c>
+      <c r="G691" s="4" t="s">
         <v>3624</v>
       </c>
-      <c r="G691" s="4" t="s">
+      <c r="J691" t="s">
         <v>3625</v>
       </c>
-      <c r="I691" t="s">
-        <v>3626</v>
-      </c>
-    </row>
-    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -22895,13 +23015,13 @@
         <v>4.2</v>
       </c>
       <c r="F692" s="4" t="s">
+        <v>3623</v>
+      </c>
+      <c r="G692" s="4" t="s">
         <v>3624</v>
       </c>
-      <c r="G692" s="4" t="s">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -22918,10 +23038,10 @@
         <v>4.5</v>
       </c>
       <c r="G693" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -22935,7 +23055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -22949,7 +23069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -22963,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -22977,7 +23097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -22991,7 +23111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -23008,7 +23128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -23022,7 +23142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -23036,7 +23156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -23050,7 +23170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -23064,7 +23184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -23081,7 +23201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -23095,7 +23215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -23109,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -23123,7 +23243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -23137,7 +23257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -23151,7 +23271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -23165,7 +23285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -23179,7 +23299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -23193,7 +23313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -23207,7 +23327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -23221,7 +23341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -23235,7 +23355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -23249,7 +23369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -23263,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -23277,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -23294,10 +23414,13 @@
         <v>1</v>
       </c>
       <c r="G719" t="s">
-        <v>3627</v>
-      </c>
-    </row>
-    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3626</v>
+      </c>
+      <c r="H719" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -23311,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -23325,7 +23448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -23339,7 +23462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -23353,7 +23476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -23367,7 +23490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -23381,7 +23504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -23395,7 +23518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -23409,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -23423,7 +23546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -23437,7 +23560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -23451,7 +23574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -23468,10 +23591,13 @@
         <v>1</v>
       </c>
       <c r="G731" s="11" t="s">
-        <v>3628</v>
-      </c>
-    </row>
-    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3627</v>
+      </c>
+      <c r="H731" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -23485,7 +23611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -23499,7 +23625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -23513,7 +23639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -23527,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -23558,7 +23684,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F737" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23578,7 +23704,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F738" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23612,7 +23738,7 @@
         <v>1</v>
       </c>
       <c r="F740" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23632,7 +23758,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F741" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23652,7 +23778,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F742" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23672,7 +23798,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F743" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23692,7 +23818,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F744" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23740,7 +23866,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F747" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23760,10 +23886,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F748" s="4" t="s">
+        <v>3628</v>
+      </c>
+      <c r="G748" t="s">
         <v>3629</v>
-      </c>
-      <c r="G748" t="s">
-        <v>3630</v>
       </c>
     </row>
     <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23822,7 +23948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -23839,10 +23965,10 @@
         <v>1</v>
       </c>
       <c r="F753" s="4" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -23859,13 +23985,13 @@
         <v>1</v>
       </c>
       <c r="F754" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="G754" t="s">
-        <v>3631</v>
-      </c>
-    </row>
-    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -23882,13 +24008,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F755" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="G755" t="s">
-        <v>3632</v>
-      </c>
-    </row>
-    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -23905,13 +24031,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F756" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="G756" t="s">
-        <v>3632</v>
-      </c>
-    </row>
-    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -23925,7 +24051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -23942,10 +24068,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F758" s="4" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -23962,10 +24088,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F759" s="4" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -23982,10 +24108,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F760" s="4" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -24002,10 +24128,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F761" s="4" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -24019,7 +24145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -24036,10 +24162,13 @@
         <v>1</v>
       </c>
       <c r="F763" s="4" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>3628</v>
+      </c>
+      <c r="H763" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -24053,7 +24182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -24067,7 +24196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -24081,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -24095,7 +24224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -24109,7 +24238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -24123,7 +24252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -24137,7 +24266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -24151,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -24165,7 +24294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -24179,7 +24308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -24193,7 +24322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -24207,7 +24336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -24221,7 +24350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -24235,7 +24364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -24249,7 +24378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -24266,10 +24395,13 @@
         <v>1</v>
       </c>
       <c r="F779" s="4" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>3628</v>
+      </c>
+      <c r="H779" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -24283,7 +24415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -24297,7 +24429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -24311,7 +24443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -24325,7 +24457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -25241,7 +25373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -25255,7 +25387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -25269,7 +25401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -25283,7 +25415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -25300,20 +25432,20 @@
         <v>4.3</v>
       </c>
       <c r="F852" s="4" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="G852" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H852" s="4"/>
+        <v>3531</v>
+      </c>
       <c r="I852" s="4"/>
       <c r="J852" s="4"/>
       <c r="K852" s="4"/>
       <c r="L852" s="4"/>
       <c r="M852" s="4"/>
       <c r="N852" s="4"/>
-    </row>
-    <row r="853" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O852" s="4"/>
+    </row>
+    <row r="853" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -25330,20 +25462,20 @@
         <v>4.3</v>
       </c>
       <c r="F853" s="4" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="G853" s="4" t="s">
-        <v>3532</v>
-      </c>
-      <c r="H853" s="4"/>
+        <v>3531</v>
+      </c>
       <c r="I853" s="4"/>
       <c r="J853" s="4"/>
       <c r="K853" s="4"/>
       <c r="L853" s="4"/>
       <c r="M853" s="4"/>
       <c r="N853" s="4"/>
-    </row>
-    <row r="854" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O853" s="4"/>
+    </row>
+    <row r="854" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -25357,7 +25489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -25371,7 +25503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -25385,7 +25517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -25399,7 +25531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -25416,18 +25548,21 @@
         <v>1</v>
       </c>
       <c r="F858" s="4" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="G858" s="4"/>
-      <c r="H858" s="4"/>
+      <c r="H858" s="13">
+        <v>1</v>
+      </c>
       <c r="I858" s="4"/>
       <c r="J858" s="4"/>
       <c r="K858" s="4"/>
       <c r="L858" s="4"/>
       <c r="M858" s="4"/>
       <c r="N858" s="4"/>
-    </row>
-    <row r="859" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O858" s="4"/>
+    </row>
+    <row r="859" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -25441,7 +25576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -25455,7 +25590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -25469,7 +25604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -25483,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -25497,7 +25632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -25511,7 +25646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -25525,7 +25660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -25539,7 +25674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -25553,7 +25688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -25567,7 +25702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -25581,7 +25716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -25597,8 +25732,11 @@
       <c r="E870">
         <v>1</v>
       </c>
-    </row>
-    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H870" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -25612,7 +25750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -25626,7 +25764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -25640,7 +25778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1">
         <v>872</v>
       </c>
@@ -25654,7 +25792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1">
         <v>873</v>
       </c>
@@ -25668,7 +25806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1">
         <v>874</v>
       </c>
@@ -25682,7 +25820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1">
         <v>875</v>
       </c>
@@ -25696,7 +25834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1">
         <v>876</v>
       </c>
@@ -25710,7 +25848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -25724,7 +25862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A880" s="1">
         <v>878</v>
       </c>
@@ -25977,10 +26115,10 @@
         <v>3</v>
       </c>
       <c r="G896" t="s">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="897" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="897" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1">
         <v>895</v>
       </c>
@@ -25998,17 +26136,17 @@
       </c>
       <c r="F897" s="6"/>
       <c r="G897" t="s">
-        <v>3634</v>
-      </c>
-      <c r="H897" s="6"/>
+        <v>3633</v>
+      </c>
       <c r="I897" s="6"/>
       <c r="J897" s="6"/>
       <c r="K897" s="6"/>
       <c r="L897" s="6"/>
       <c r="M897" s="6"/>
       <c r="N897" s="6"/>
-    </row>
-    <row r="898" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O897" s="6"/>
+    </row>
+    <row r="898" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1">
         <v>896</v>
       </c>
@@ -26026,17 +26164,17 @@
       </c>
       <c r="F898" s="6"/>
       <c r="G898" t="s">
-        <v>3634</v>
-      </c>
-      <c r="H898" s="6"/>
+        <v>3633</v>
+      </c>
       <c r="I898" s="6"/>
       <c r="J898" s="6"/>
       <c r="K898" s="6"/>
       <c r="L898" s="6"/>
       <c r="M898" s="6"/>
       <c r="N898" s="6"/>
-    </row>
-    <row r="899" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O898" s="6"/>
+    </row>
+    <row r="899" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1">
         <v>897</v>
       </c>
@@ -26053,10 +26191,10 @@
         <v>3</v>
       </c>
       <c r="G899" t="s">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="900" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="900" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1">
         <v>898</v>
       </c>
@@ -26073,10 +26211,13 @@
         <v>3</v>
       </c>
       <c r="G900" t="s">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="901" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3635</v>
+      </c>
+      <c r="H900" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1">
         <v>899</v>
       </c>
@@ -26093,10 +26234,13 @@
         <v>3</v>
       </c>
       <c r="G901" t="s">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="902" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3635</v>
+      </c>
+      <c r="H901" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1">
         <v>900</v>
       </c>
@@ -26113,10 +26257,10 @@
         <v>3</v>
       </c>
       <c r="G902" t="s">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="903" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="903" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1">
         <v>901</v>
       </c>
@@ -26133,13 +26277,13 @@
         <v>4.5</v>
       </c>
       <c r="F903" t="s">
+        <v>3634</v>
+      </c>
+      <c r="G903" t="s">
         <v>3635</v>
       </c>
-      <c r="G903" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="904" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="904" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1">
         <v>902</v>
       </c>
@@ -26156,20 +26300,23 @@
         <v>4.5</v>
       </c>
       <c r="F904" t="s">
+        <v>3634</v>
+      </c>
+      <c r="G904" t="s">
         <v>3635</v>
       </c>
-      <c r="G904" t="s">
-        <v>3636</v>
-      </c>
-      <c r="H904" s="6"/>
+      <c r="H904" s="13">
+        <v>1</v>
+      </c>
       <c r="I904" s="6"/>
       <c r="J904" s="6"/>
       <c r="K904" s="6"/>
       <c r="L904" s="6"/>
       <c r="M904" s="6"/>
       <c r="N904" s="6"/>
-    </row>
-    <row r="905" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O904" s="6"/>
+    </row>
+    <row r="905" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1">
         <v>903</v>
       </c>
@@ -26186,20 +26333,23 @@
         <v>4.5</v>
       </c>
       <c r="F905" t="s">
+        <v>3634</v>
+      </c>
+      <c r="G905" t="s">
         <v>3635</v>
       </c>
-      <c r="G905" t="s">
-        <v>3636</v>
-      </c>
-      <c r="H905" s="6"/>
+      <c r="H905" s="13">
+        <v>1</v>
+      </c>
       <c r="I905" s="6"/>
       <c r="J905" s="6"/>
       <c r="K905" s="6"/>
       <c r="L905" s="6"/>
       <c r="M905" s="6"/>
       <c r="N905" s="6"/>
-    </row>
-    <row r="906" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O905" s="6"/>
+    </row>
+    <row r="906" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1">
         <v>904</v>
       </c>
@@ -26213,7 +26363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1">
         <v>905</v>
       </c>
@@ -26230,13 +26380,13 @@
         <v>4.5</v>
       </c>
       <c r="F907" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="G907" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="908" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="908" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1">
         <v>906</v>
       </c>
@@ -26253,13 +26403,13 @@
         <v>4.5</v>
       </c>
       <c r="F908" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="G908" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="909" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="909" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1">
         <v>907</v>
       </c>
@@ -26276,13 +26426,13 @@
         <v>4.5</v>
       </c>
       <c r="F909" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="G909" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="910" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="910" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1">
         <v>908</v>
       </c>
@@ -26299,13 +26449,13 @@
         <v>4.5</v>
       </c>
       <c r="F910" t="s">
+        <v>3634</v>
+      </c>
+      <c r="G910" t="s">
         <v>3635</v>
       </c>
-      <c r="G910" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="911" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="911" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1">
         <v>909</v>
       </c>
@@ -26319,7 +26469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1">
         <v>910</v>
       </c>
@@ -26333,27 +26483,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A913" s="1">
+    <row r="913" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A913" s="16">
         <v>911</v>
       </c>
-      <c r="B913" t="s">
+      <c r="B913" s="17" t="s">
         <v>913</v>
       </c>
-      <c r="C913" t="s">
+      <c r="C913" s="17" t="s">
         <v>2680</v>
       </c>
-      <c r="D913">
+      <c r="D913" s="17">
         <v>1</v>
       </c>
-      <c r="E913">
+      <c r="E913" s="17">
         <v>1</v>
       </c>
-      <c r="H913" t="s">
-        <v>3638</v>
-      </c>
-    </row>
-    <row r="914" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I913" s="17" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1">
         <v>912</v>
       </c>
@@ -26367,41 +26517,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A915" s="1">
+    <row r="915" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A915" s="16">
         <v>913</v>
       </c>
-      <c r="B915" t="s">
+      <c r="B915" s="17" t="s">
         <v>915</v>
       </c>
-      <c r="C915" t="s">
+      <c r="C915" s="17" t="s">
         <v>2682</v>
       </c>
-      <c r="D915">
+      <c r="D915" s="17">
         <v>1</v>
       </c>
-      <c r="E915">
+      <c r="E915" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A916" s="1">
+    <row r="916" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A916" s="16">
         <v>914</v>
       </c>
-      <c r="B916" t="s">
+      <c r="B916" s="17" t="s">
         <v>916</v>
       </c>
-      <c r="C916" t="s">
+      <c r="C916" s="17" t="s">
         <v>2683</v>
       </c>
-      <c r="D916">
+      <c r="D916" s="17">
         <v>1</v>
       </c>
-      <c r="E916">
+      <c r="E916" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1">
         <v>915</v>
       </c>
@@ -26415,7 +26565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1">
         <v>916</v>
       </c>
@@ -26429,7 +26579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1">
         <v>917</v>
       </c>
@@ -26443,7 +26593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1">
         <v>918</v>
       </c>
@@ -26457,7 +26607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1">
         <v>919</v>
       </c>
@@ -26471,7 +26621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922" s="1">
         <v>920</v>
       </c>
@@ -26485,7 +26635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923" s="1">
         <v>921</v>
       </c>
@@ -26499,7 +26649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1">
         <v>922</v>
       </c>
@@ -26513,7 +26663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1">
         <v>923</v>
       </c>
@@ -26527,7 +26677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926" s="1">
         <v>924</v>
       </c>
@@ -26541,7 +26691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927" s="1">
         <v>925</v>
       </c>
@@ -26555,7 +26705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928" s="1">
         <v>926</v>
       </c>
@@ -38223,7 +38373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1761" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1761" s="1">
         <v>1759</v>
       </c>
@@ -38240,7 +38390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1762" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1762" s="1">
         <v>1760</v>
       </c>
@@ -38254,7 +38404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1763" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1763" s="1">
         <v>1761</v>
       </c>
@@ -38268,7 +38418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1764" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1764" s="1">
         <v>1762</v>
       </c>
@@ -38281,8 +38431,14 @@
       <c r="D1764">
         <v>0</v>
       </c>
-    </row>
-    <row r="1765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G1764" t="s">
+        <v>3640</v>
+      </c>
+      <c r="H1764" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1765" s="1">
         <v>1763</v>
       </c>
@@ -38296,7 +38452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1766" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1766" s="1">
         <v>1764</v>
       </c>
@@ -38313,7 +38469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1767" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1767" s="1">
         <v>1765</v>
       </c>
@@ -38327,7 +38483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1768" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1768" s="1">
         <v>1766</v>
       </c>
@@ -38341,7 +38497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1769" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1769" s="1">
         <v>1767</v>
       </c>
@@ -38356,7 +38512,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1769" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1769" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>

--- a/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
+++ b/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/Export/WorkingSheetArchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A05B0CA-D32A-4B95-9946-9E299E8CA702}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95DFC5C9-5577-42C5-820B-73A2ACCA839A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="3641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="3643">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -10969,6 +10969,12 @@
   </si>
   <si>
     <t>Get from ratings</t>
+  </si>
+  <si>
+    <t>Always same as ceoso so only need one</t>
+  </si>
+  <si>
+    <t>renamed to exesign</t>
   </si>
 </sst>
 </file>
@@ -11098,7 +11104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11131,6 +11137,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11473,8 +11482,8 @@
   <dimension ref="A1:O1769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C323" sqref="C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15395,29 +15404,29 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
+    <row r="216" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="18">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="4" t="s">
         <v>1984</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="4">
         <v>1</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="4">
         <v>1</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="4" t="s">
         <v>3555</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="4" t="s">
         <v>3556</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="4">
         <v>1</v>
       </c>
     </row>
@@ -15533,32 +15542,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
+    <row r="225" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="18">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="4" t="s">
         <v>1993</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="4">
         <v>1</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="4">
         <v>1</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="4" t="s">
         <v>3555</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="4" t="s">
         <v>3557</v>
       </c>
-      <c r="H225" s="13">
+      <c r="H225" s="4">
         <v>1</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="4">
         <v>1</v>
       </c>
     </row>
@@ -16223,38 +16232,42 @@
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A264" s="1">
+      <c r="A264" s="18">
         <v>262</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="4" t="s">
         <v>2032</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="4">
         <v>1</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="4">
         <v>1</v>
       </c>
+      <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A265" s="1">
+      <c r="A265" s="18">
         <v>263</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="4" t="s">
         <v>2033</v>
       </c>
-      <c r="D265">
-        <v>1</v>
-      </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
+      <c r="D265" s="4">
+        <v>0</v>
+      </c>
+      <c r="E265" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
     </row>
     <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
@@ -23722,20 +23735,20 @@
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A740" s="1">
+      <c r="A740" s="18">
         <v>738</v>
       </c>
-      <c r="B740" t="s">
+      <c r="B740" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="C740" t="s">
+      <c r="C740" s="4" t="s">
         <v>2508</v>
       </c>
-      <c r="D740">
+      <c r="D740" s="4">
         <v>1</v>
       </c>
       <c r="E740" s="4">
-        <v>1</v>
+        <v>6.11</v>
       </c>
       <c r="F740" s="4" t="s">
         <v>3628</v>
@@ -23949,40 +23962,40 @@
       </c>
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A753" s="1">
+      <c r="A753" s="18">
         <v>751</v>
       </c>
-      <c r="B753" t="s">
+      <c r="B753" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="C753" t="s">
+      <c r="C753" s="4" t="s">
         <v>2521</v>
       </c>
-      <c r="D753">
+      <c r="D753" s="4">
         <v>1</v>
       </c>
       <c r="E753" s="4">
-        <v>1</v>
+        <v>6.11</v>
       </c>
       <c r="F753" s="4" t="s">
         <v>3628</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A754" s="1">
+    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A754" s="18">
         <v>752</v>
       </c>
-      <c r="B754" t="s">
+      <c r="B754" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="C754" t="s">
+      <c r="C754" s="4" t="s">
         <v>2522</v>
       </c>
-      <c r="D754">
-        <v>1</v>
+      <c r="D754" s="4">
+        <v>0</v>
       </c>
       <c r="E754" s="4">
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F754" s="4" t="s">
         <v>3628</v>
@@ -24146,20 +24159,20 @@
       </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A763" s="1">
+      <c r="A763" s="18">
         <v>761</v>
       </c>
-      <c r="B763" t="s">
+      <c r="B763" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C763" t="s">
+      <c r="C763" s="4" t="s">
         <v>2531</v>
       </c>
-      <c r="D763">
+      <c r="D763" s="4">
         <v>1</v>
       </c>
       <c r="E763" s="4">
-        <v>1</v>
+        <v>6.11</v>
       </c>
       <c r="F763" s="4" t="s">
         <v>3628</v>
@@ -24379,20 +24392,20 @@
       </c>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A779" s="1">
+      <c r="A779" s="18">
         <v>777</v>
       </c>
-      <c r="B779" t="s">
+      <c r="B779" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="C779" t="s">
+      <c r="C779" s="4" t="s">
         <v>2547</v>
       </c>
-      <c r="D779">
+      <c r="D779" s="4">
         <v>1</v>
       </c>
       <c r="E779" s="4">
-        <v>1</v>
+        <v>6.11</v>
       </c>
       <c r="F779" s="4" t="s">
         <v>3628</v>
@@ -26533,6 +26546,9 @@
       <c r="E915" s="17">
         <v>1</v>
       </c>
+      <c r="G915" s="17" t="s">
+        <v>3642</v>
+      </c>
     </row>
     <row r="916" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A916" s="16">
@@ -26545,10 +26561,13 @@
         <v>2683</v>
       </c>
       <c r="D916" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E916" s="17">
-        <v>1</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G916" s="17" t="s">
+        <v>3641</v>
       </c>
     </row>
     <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.3">

--- a/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
+++ b/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/Export/WorkingSheetArchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95DFC5C9-5577-42C5-820B-73A2ACCA839A}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A36AC1B1-35D6-4C15-8B54-7BFBD4AAA0CC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fundamentals_Remaining" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="3643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="3645">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -10975,6 +10975,12 @@
   </si>
   <si>
     <t>renamed to exesign</t>
+  </si>
+  <si>
+    <t>4.Tinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kept in place of others makred as 4.Tinger in set.  </t>
   </si>
 </sst>
 </file>
@@ -11482,8 +11488,8 @@
   <dimension ref="A1:O1769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C323" sqref="C323"/>
+      <pane ySplit="1" topLeftCell="A731" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1772" sqref="C1772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12193,21 +12199,21 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>1810</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>3643</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>3530</v>
@@ -12390,21 +12396,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>1823</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>3643</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>3530</v>
@@ -12565,21 +12571,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>1834</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>3643</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>3530</v>
@@ -12715,17 +12721,17 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="73" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>1841</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="4">
         <v>1</v>
       </c>
       <c r="E73" s="4">
@@ -12734,14 +12740,6 @@
       <c r="F73" s="4" t="s">
         <v>3530</v>
       </c>
-      <c r="G73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
     </row>
     <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
@@ -12876,35 +12874,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="18">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>3643</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>3530</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-    </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -12918,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -12932,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -12946,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -12960,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12974,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12988,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -13002,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -13016,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -13030,7 +13020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -13044,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13058,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13072,17 +13062,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="18">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>1862</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="4">
         <v>1</v>
       </c>
       <c r="E94" s="4">
@@ -13091,19 +13081,14 @@
       <c r="F94" s="4" t="s">
         <v>3530</v>
       </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="13">
+      <c r="G94" s="4" t="s">
+        <v>3644</v>
+      </c>
+      <c r="H94" s="4">
         <v>1</v>
       </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-    </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13117,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -16250,7 +16235,7 @@
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="18">
         <v>263</v>
       </c>
@@ -26550,7 +26535,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="916" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:9" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916" s="16">
         <v>914</v>
       </c>

--- a/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
+++ b/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/Export/WorkingSheetArchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A36AC1B1-35D6-4C15-8B54-7BFBD4AAA0CC}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24FE4461-E747-48D9-A356-1A19B73363A1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fundamentals_Remaining" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="3645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="3653">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -10655,9 +10655,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>Only need top 2 from this set</t>
   </si>
   <si>
     <t>c</t>
@@ -10745,9 +10742,6 @@
     <t>dv/dvt are duplicative -- delete this one</t>
   </si>
   <si>
-    <t>Gap between common and total might be meaningful</t>
-  </si>
-  <si>
     <t>dv/dvt are duplicative -- keep this one</t>
   </si>
   <si>
@@ -10981,6 +10975,36 @@
   </si>
   <si>
     <t xml:space="preserve">Kept in place of others makred as 4.Tinger in set.  </t>
+  </si>
+  <si>
+    <t>Might be meaningful -- possibly keep</t>
+  </si>
+  <si>
+    <t>Delete per Tinger</t>
+  </si>
+  <si>
+    <t>Per Tinger  -- Take this out from Combination -- delete</t>
+  </si>
+  <si>
+    <t>Per Tinger -- confirm that including isn't double counting</t>
+  </si>
+  <si>
+    <t>Per Tinger - Exclude</t>
+  </si>
+  <si>
+    <t>Per Tinger - Remove</t>
+  </si>
+  <si>
+    <t>dpvieb and dpact are always the same . Per Tinger remove -- duplicated dp</t>
+  </si>
+  <si>
+    <t>Per Tinger - Don't care about total as much as decrease</t>
+  </si>
+  <si>
+    <t>Gap between common and total might be meaningful. Possible to replace both w/ gap between total.</t>
+  </si>
+  <si>
+    <t>Per Tinger - Redudant Might be embedded in other numbers</t>
   </si>
 </sst>
 </file>
@@ -11110,7 +11134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11146,6 +11170,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11488,8 +11514,8 @@
   <dimension ref="A1:O1769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A731" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1772" sqref="C1772"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11498,7 +11524,7 @@
     <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="40.5546875" customWidth="1"/>
+    <col min="7" max="7" width="153.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.77734375" style="13" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -11525,7 +11551,7 @@
         <v>3520</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="J1" t="s">
         <v>3521</v>
@@ -11775,7 +11801,7 @@
         <v>3527</v>
       </c>
       <c r="G15" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="H15" s="13">
         <v>1</v>
@@ -11801,7 +11827,7 @@
         <v>3527</v>
       </c>
       <c r="G16" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="H16" s="13">
         <v>1</v>
@@ -12199,7 +12225,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -12213,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>3530</v>
@@ -12396,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -12410,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>3530</v>
@@ -12571,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>64</v>
       </c>
@@ -12585,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>3530</v>
@@ -12874,24 +12900,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="19" t="s">
         <v>1849</v>
       </c>
-      <c r="D81" s="4">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="D81" s="19">
+        <v>0</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>3641</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G81" s="19" t="s">
         <v>3643</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>3530</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -13082,7 +13111,7 @@
         <v>3530</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
       <c r="H94" s="4">
         <v>1</v>
@@ -13388,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>114</v>
       </c>
@@ -13399,19 +13428,22 @@
         <v>1884</v>
       </c>
       <c r="D116" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F116" s="17" t="s">
         <v>3534</v>
       </c>
+      <c r="G116" s="17" t="s">
+        <v>3648</v>
+      </c>
       <c r="H116" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>115</v>
       </c>
@@ -13422,10 +13454,13 @@
         <v>1885</v>
       </c>
       <c r="D117" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="17">
-        <v>1</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>3652</v>
       </c>
       <c r="H117" s="17">
         <v>1</v>
@@ -13779,13 +13814,13 @@
         <v>1</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F138" t="s">
         <v>3539</v>
       </c>
       <c r="G138" t="s">
-        <v>3540</v>
+        <v>3648</v>
       </c>
       <c r="H138" s="13">
         <v>1</v>
@@ -13808,13 +13843,13 @@
         <v>1</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F139" t="s">
         <v>3539</v>
       </c>
       <c r="G139" t="s">
-        <v>3540</v>
+        <v>3648</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -14351,10 +14386,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F170" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G170" s="4" t="s">
         <v>3541</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>3542</v>
       </c>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -14381,10 +14416,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F171" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G171" s="4" t="s">
         <v>3541</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>3542</v>
       </c>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
@@ -14411,10 +14446,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F172" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G172" s="4" t="s">
         <v>3541</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>3542</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -14441,10 +14476,10 @@
         <v>1</v>
       </c>
       <c r="F173" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>3541</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>3542</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -14555,10 +14590,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F180" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G180" s="4" t="s">
         <v>3541</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>3542</v>
       </c>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
@@ -14585,10 +14620,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F181" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G181" s="4" t="s">
         <v>3541</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>3542</v>
       </c>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -14615,10 +14650,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F182" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>3541</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>3542</v>
       </c>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
@@ -14660,10 +14695,10 @@
       </c>
       <c r="F184" s="5"/>
       <c r="G184" t="s">
+        <v>3542</v>
+      </c>
+      <c r="I184" t="s">
         <v>3543</v>
-      </c>
-      <c r="I184" t="s">
-        <v>3544</v>
       </c>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
@@ -14688,7 +14723,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G185" s="6"/>
       <c r="I185" s="6"/>
@@ -14716,10 +14751,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F186" s="6" t="s">
+        <v>3544</v>
+      </c>
+      <c r="G186" s="6" t="s">
         <v>3545</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>3546</v>
       </c>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
@@ -14746,10 +14781,10 @@
         <v>1</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
@@ -14790,10 +14825,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
@@ -14820,10 +14855,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
@@ -14850,10 +14885,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
@@ -14880,10 +14915,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
@@ -14910,10 +14945,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
@@ -14940,10 +14975,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
@@ -15068,10 +15103,10 @@
         <v>4.5</v>
       </c>
       <c r="F202" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="G202" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.3">
@@ -15091,13 +15126,13 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
+        <v>3549</v>
+      </c>
+      <c r="G203" t="s">
         <v>3550</v>
       </c>
-      <c r="G203" t="s">
+      <c r="I203" t="s">
         <v>3551</v>
-      </c>
-      <c r="I203" t="s">
-        <v>3552</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.3">
@@ -15117,10 +15152,10 @@
         <v>1</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
@@ -15161,7 +15196,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G206" s="6"/>
       <c r="I206" s="6"/>
@@ -15189,7 +15224,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G207" s="6"/>
       <c r="I207" s="6"/>
@@ -15231,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G209" s="6"/>
       <c r="I209" s="6"/>
@@ -15273,7 +15308,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G211" s="6"/>
       <c r="H211" s="13">
@@ -15304,7 +15339,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G212" s="6"/>
       <c r="I212" s="6"/>
@@ -15332,7 +15367,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G213" s="6"/>
       <c r="I213" s="6"/>
@@ -15360,10 +15395,10 @@
         <v>4.5</v>
       </c>
       <c r="F214" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G214" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -15383,10 +15418,10 @@
         <v>4.5</v>
       </c>
       <c r="F215" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G215" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="216" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -15406,10 +15441,10 @@
         <v>1</v>
       </c>
       <c r="F216" s="4" t="s">
+        <v>3554</v>
+      </c>
+      <c r="G216" s="4" t="s">
         <v>3555</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>3556</v>
       </c>
       <c r="I216" s="4">
         <v>1</v>
@@ -15527,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="18">
         <v>223</v>
       </c>
@@ -15538,16 +15573,16 @@
         <v>1993</v>
       </c>
       <c r="D225" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225" s="4">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>3557</v>
+        <v>3649</v>
       </c>
       <c r="H225" s="4">
         <v>1</v>
@@ -15573,10 +15608,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F226" t="s">
+        <v>3554</v>
+      </c>
+      <c r="G226" t="s">
         <v>3555</v>
-      </c>
-      <c r="G226" t="s">
-        <v>3556</v>
       </c>
     </row>
     <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -15708,10 +15743,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F235" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G235" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -15756,19 +15791,19 @@
         <v>0</v>
       </c>
       <c r="E238" s="7" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F238" s="7" t="s">
         <v>3558</v>
       </c>
-      <c r="F238" s="7" t="s">
+      <c r="G238" s="7" t="s">
         <v>3559</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>3560</v>
       </c>
       <c r="I238" s="7">
         <v>1</v>
       </c>
       <c r="J238" s="8" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -15799,13 +15834,13 @@
         <v>0</v>
       </c>
       <c r="E240" s="7" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F240" s="7" t="s">
         <v>3558</v>
       </c>
-      <c r="F240" s="7" t="s">
+      <c r="G240" s="7" t="s">
         <v>3559</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>3560</v>
       </c>
       <c r="H240" s="13">
         <v>1</v>
@@ -15831,10 +15866,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
@@ -15917,10 +15952,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
@@ -15947,10 +15982,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F247" t="s">
+        <v>3563</v>
+      </c>
+      <c r="G247" t="s">
         <v>3564</v>
-      </c>
-      <c r="G247" t="s">
-        <v>3565</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.3">
@@ -15967,13 +16002,13 @@
         <v>1</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>5.22</v>
       </c>
       <c r="F248" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="G248" t="s">
-        <v>3566</v>
+        <v>3651</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -16010,7 +16045,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F250" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -16030,7 +16065,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F251" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -16131,13 +16166,13 @@
         <v>1</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>5.22</v>
       </c>
       <c r="F258" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="G258" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="H258" s="13">
         <v>1</v>
@@ -16299,10 +16334,10 @@
         <v>4.5</v>
       </c>
       <c r="G268" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
       <c r="I268" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.3">
@@ -16322,10 +16357,10 @@
         <v>1</v>
       </c>
       <c r="F269" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="G269" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -16345,10 +16380,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F270" t="s">
+        <v>3568</v>
+      </c>
+      <c r="G270" t="s">
         <v>3570</v>
-      </c>
-      <c r="G270" t="s">
-        <v>3572</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.3">
@@ -16368,10 +16403,10 @@
         <v>1</v>
       </c>
       <c r="F271" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="G271" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -16394,10 +16429,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F272" s="9" t="s">
+        <v>3568</v>
+      </c>
+      <c r="G272" s="9" t="s">
         <v>3570</v>
-      </c>
-      <c r="G272" s="9" t="s">
-        <v>3572</v>
       </c>
       <c r="H272" s="14"/>
       <c r="I272" s="9"/>
@@ -16425,7 +16460,7 @@
         <v>1</v>
       </c>
       <c r="F273" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="H273" s="13">
         <v>1</v>
@@ -16434,7 +16469,7 @@
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16468,10 +16503,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F275" t="s">
+        <v>3572</v>
+      </c>
+      <c r="G275" t="s">
         <v>3574</v>
-      </c>
-      <c r="G275" t="s">
-        <v>3576</v>
       </c>
     </row>
     <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16505,10 +16540,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F277" t="s">
+        <v>3572</v>
+      </c>
+      <c r="G277" t="s">
         <v>3574</v>
-      </c>
-      <c r="G277" t="s">
-        <v>3576</v>
       </c>
     </row>
     <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16613,10 +16648,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F283" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="G283" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16678,10 +16713,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F287" t="s">
+        <v>3575</v>
+      </c>
+      <c r="G287" t="s">
         <v>3577</v>
-      </c>
-      <c r="G287" t="s">
-        <v>3579</v>
       </c>
     </row>
     <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16813,10 +16848,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F296" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="G296" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -16836,10 +16871,10 @@
         <v>1</v>
       </c>
       <c r="F297" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G297" t="s">
         <v>3580</v>
-      </c>
-      <c r="G297" t="s">
-        <v>3582</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -16859,7 +16894,7 @@
         <v>1</v>
       </c>
       <c r="F298" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -16879,10 +16914,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F299" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="G299" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -16989,7 +17024,7 @@
         <v>194</v>
       </c>
       <c r="G306" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -17645,10 +17680,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="G352" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
@@ -17675,10 +17710,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="G353" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
@@ -17719,10 +17754,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="G355" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
@@ -17749,10 +17784,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="G356" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
@@ -17793,10 +17828,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="G358" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
@@ -17969,7 +18004,7 @@
         <v>1</v>
       </c>
       <c r="F369" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -17989,10 +18024,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F370" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="G370" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -18012,7 +18047,7 @@
         <v>4.3</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="G371" s="4" t="s">
         <v>3531</v>
@@ -18035,7 +18070,7 @@
         <v>1</v>
       </c>
       <c r="F372" s="4" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="G372" s="4"/>
       <c r="I372">
@@ -18059,7 +18094,7 @@
         <v>1</v>
       </c>
       <c r="F373" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -18160,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -18171,13 +18206,16 @@
         <v>2149</v>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F381" t="s">
-        <v>3590</v>
+        <v>3588</v>
+      </c>
+      <c r="G381" t="s">
+        <v>3650</v>
       </c>
     </row>
     <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -18869,7 +18907,7 @@
         <v>4.3</v>
       </c>
       <c r="F430" s="4" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="G430" s="4" t="s">
         <v>3531</v>
@@ -18893,7 +18931,7 @@
         <v>4.3</v>
       </c>
       <c r="F431" s="4" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="G431" s="4" t="s">
         <v>3531</v>
@@ -18917,7 +18955,7 @@
         <v>4.3</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="G432" s="4" t="s">
         <v>3531</v>
@@ -18941,7 +18979,7 @@
         <v>4.3</v>
       </c>
       <c r="F433" s="4" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="G433" s="4" t="s">
         <v>3531</v>
@@ -18993,10 +19031,10 @@
         <v>1</v>
       </c>
       <c r="F436" s="4" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="G436" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="I436" s="4">
         <v>1</v>
@@ -19033,7 +19071,7 @@
         <v>4.3</v>
       </c>
       <c r="F438" s="4" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="G438" s="4" t="s">
         <v>3531</v>
@@ -19057,7 +19095,7 @@
         <v>4.3</v>
       </c>
       <c r="F439" s="4" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="G439" s="4" t="s">
         <v>3531</v>
@@ -19535,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="16">
         <v>471</v>
       </c>
@@ -19546,13 +19584,16 @@
         <v>2241</v>
       </c>
       <c r="D473" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E473" s="17">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F473" s="17" t="s">
-        <v>3592</v>
+        <v>3590</v>
+      </c>
+      <c r="G473" s="17" t="s">
+        <v>3644</v>
       </c>
     </row>
     <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -19586,7 +19627,7 @@
         <v>1</v>
       </c>
       <c r="F475" s="17" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="H475" s="17">
         <v>1</v>
@@ -19651,7 +19692,7 @@
         <v>4.5</v>
       </c>
       <c r="F479" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
       <c r="G479" t="s">
         <v>3532</v>
@@ -19674,7 +19715,7 @@
         <v>1</v>
       </c>
       <c r="F480" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -19694,10 +19735,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F481" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="G481" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -19787,10 +19828,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F487" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="G487" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
@@ -19810,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="I488" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -19900,7 +19941,7 @@
         <v>1</v>
       </c>
       <c r="F494" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="H494" s="13">
         <v>1</v>
@@ -19923,10 +19964,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F495" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="G495" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -20100,7 +20141,7 @@
         <v>1</v>
       </c>
       <c r="F507" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -20120,10 +20161,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F508" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="G508" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.3">
@@ -20143,7 +20184,7 @@
         <v>1</v>
       </c>
       <c r="G509" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -20261,10 +20302,10 @@
         <v>1</v>
       </c>
       <c r="F517" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="G517" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -20298,10 +20339,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F519" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G519" t="s">
         <v>3602</v>
-      </c>
-      <c r="G519" t="s">
-        <v>3604</v>
       </c>
       <c r="H519" s="13">
         <v>1</v>
@@ -20324,10 +20365,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F520" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G520" t="s">
         <v>3602</v>
-      </c>
-      <c r="G520" t="s">
-        <v>3604</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.3">
@@ -20347,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="F521" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="G521" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -20454,10 +20495,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F528" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="G528" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -20900,7 +20941,7 @@
         <v>1</v>
       </c>
       <c r="F559" s="4" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="G559" s="4"/>
     </row>
@@ -20921,7 +20962,7 @@
         <v>4.3</v>
       </c>
       <c r="F560" s="4" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="G560" s="4" t="s">
         <v>3531</v>
@@ -20944,7 +20985,7 @@
         <v>4.3</v>
       </c>
       <c r="F561" s="4" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="G561" s="4" t="s">
         <v>3531</v>
@@ -21107,10 +21148,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F572" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="G572" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21158,10 +21199,10 @@
         <v>1</v>
       </c>
       <c r="F575" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="I575" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21279,10 +21320,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F583" t="s">
+        <v>3608</v>
+      </c>
+      <c r="G583" t="s">
         <v>3610</v>
-      </c>
-      <c r="G583" t="s">
-        <v>3612</v>
       </c>
       <c r="H583" s="13">
         <v>1</v>
@@ -21431,7 +21472,7 @@
         <v>1</v>
       </c>
       <c r="F593" s="4" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="G593" s="4"/>
     </row>
@@ -21452,7 +21493,7 @@
         <v>4.3</v>
       </c>
       <c r="F594" s="4" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="G594" s="4" t="s">
         <v>3531</v>
@@ -21475,7 +21516,7 @@
         <v>4.3</v>
       </c>
       <c r="F595" s="4" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="G595" s="4" t="s">
         <v>3531</v>
@@ -21540,10 +21581,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F599" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="G599" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -21563,7 +21604,7 @@
         <v>4.5</v>
       </c>
       <c r="F600" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="G600" t="s">
         <v>3532</v>
@@ -21628,7 +21669,7 @@
         <v>4.5</v>
       </c>
       <c r="F604" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="H604" s="13">
         <v>1</v>
@@ -21707,10 +21748,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F609" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="G609" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -22038,10 +22079,10 @@
         <v>1</v>
       </c>
       <c r="F632" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="G632" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
       <c r="H632" s="13">
         <v>1</v>
@@ -22061,13 +22102,13 @@
         <v>0</v>
       </c>
       <c r="E633" s="4" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="F633" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="G633" s="4" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="I633">
         <v>1</v>
@@ -22087,13 +22128,13 @@
         <v>0</v>
       </c>
       <c r="E634" s="4" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="F634" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="G634" s="4" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="I634">
         <v>1</v>
@@ -22181,13 +22222,13 @@
         <v>0</v>
       </c>
       <c r="E639" s="4" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="F639" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="G639" s="4" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="I639">
         <v>1</v>
@@ -22255,7 +22296,7 @@
         <v>4.2</v>
       </c>
       <c r="F643" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22289,7 +22330,7 @@
         <v>1</v>
       </c>
       <c r="G645" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="H645" s="13">
         <v>1</v>
@@ -22721,7 +22762,7 @@
         <v>4.2</v>
       </c>
       <c r="G675" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="H675" s="13">
         <v>1</v>
@@ -22842,7 +22883,7 @@
         <v>1</v>
       </c>
       <c r="F683" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -22862,10 +22903,10 @@
         <v>4.5</v>
       </c>
       <c r="F684" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="G684" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -22961,7 +23002,7 @@
         <v>1</v>
       </c>
       <c r="F690" s="4" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="H690" s="13">
         <v>1</v>
@@ -22987,13 +23028,13 @@
         <v>4.2</v>
       </c>
       <c r="F691" s="4" t="s">
+        <v>3621</v>
+      </c>
+      <c r="G691" s="4" t="s">
+        <v>3622</v>
+      </c>
+      <c r="J691" t="s">
         <v>3623</v>
-      </c>
-      <c r="G691" s="4" t="s">
-        <v>3624</v>
-      </c>
-      <c r="J691" t="s">
-        <v>3625</v>
       </c>
     </row>
     <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -23013,10 +23054,10 @@
         <v>4.2</v>
       </c>
       <c r="F692" s="4" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="G692" s="4" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -23412,7 +23453,7 @@
         <v>1</v>
       </c>
       <c r="G719" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="H719" s="13">
         <v>1</v>
@@ -23589,7 +23630,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="11" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="H731" s="15">
         <v>1</v>
@@ -23682,7 +23723,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F737" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23702,7 +23743,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F738" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23719,7 +23760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="18">
         <v>738</v>
       </c>
@@ -23730,13 +23771,16 @@
         <v>2508</v>
       </c>
       <c r="D740" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E740" s="4">
-        <v>6.11</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F740" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
+      </c>
+      <c r="G740" s="20" t="s">
+        <v>3645</v>
       </c>
     </row>
     <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23756,7 +23800,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F741" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23776,7 +23820,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F742" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23796,7 +23840,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F743" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23816,7 +23860,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F744" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23864,7 +23908,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F747" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23884,10 +23928,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F748" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="G748" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23963,7 +24007,10 @@
         <v>6.11</v>
       </c>
       <c r="F753" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
+      </c>
+      <c r="G753" s="20" t="s">
+        <v>3646</v>
       </c>
     </row>
     <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -23983,10 +24030,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F754" s="4" t="s">
+        <v>3626</v>
+      </c>
+      <c r="G754" t="s">
         <v>3628</v>
-      </c>
-      <c r="G754" t="s">
-        <v>3630</v>
       </c>
     </row>
     <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24006,10 +24053,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F755" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="G755" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24029,10 +24076,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F756" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="G756" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24066,7 +24113,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F758" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24086,7 +24133,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F759" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24106,7 +24153,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F760" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24126,7 +24173,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F761" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24160,7 +24207,7 @@
         <v>6.11</v>
       </c>
       <c r="F763" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="H763" s="13">
         <v>1</v>
@@ -24376,7 +24423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="18">
         <v>777</v>
       </c>
@@ -24387,13 +24434,16 @@
         <v>2547</v>
       </c>
       <c r="D779" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E779" s="4">
-        <v>6.11</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F779" s="4" t="s">
-        <v>3628</v>
+        <v>3626</v>
+      </c>
+      <c r="G779" s="20" t="s">
+        <v>3647</v>
       </c>
       <c r="H779" s="13">
         <v>1</v>
@@ -25430,7 +25480,7 @@
         <v>4.3</v>
       </c>
       <c r="F852" s="4" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="G852" s="4" t="s">
         <v>3531</v>
@@ -25460,7 +25510,7 @@
         <v>4.3</v>
       </c>
       <c r="F853" s="4" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="G853" s="4" t="s">
         <v>3531</v>
@@ -25546,7 +25596,7 @@
         <v>1</v>
       </c>
       <c r="F858" s="4" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="G858" s="4"/>
       <c r="H858" s="13">
@@ -26113,7 +26163,7 @@
         <v>3</v>
       </c>
       <c r="G896" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="897" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26134,7 +26184,7 @@
       </c>
       <c r="F897" s="6"/>
       <c r="G897" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="I897" s="6"/>
       <c r="J897" s="6"/>
@@ -26162,7 +26212,7 @@
       </c>
       <c r="F898" s="6"/>
       <c r="G898" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="I898" s="6"/>
       <c r="J898" s="6"/>
@@ -26189,7 +26239,7 @@
         <v>3</v>
       </c>
       <c r="G899" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="900" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26209,7 +26259,7 @@
         <v>3</v>
       </c>
       <c r="G900" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="H900" s="13">
         <v>1</v>
@@ -26232,7 +26282,7 @@
         <v>3</v>
       </c>
       <c r="G901" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="H901" s="13">
         <v>1</v>
@@ -26255,7 +26305,7 @@
         <v>3</v>
       </c>
       <c r="G902" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="903" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26275,10 +26325,10 @@
         <v>4.5</v>
       </c>
       <c r="F903" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="G903" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="904" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26298,10 +26348,10 @@
         <v>4.5</v>
       </c>
       <c r="F904" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="G904" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="H904" s="13">
         <v>1</v>
@@ -26331,10 +26381,10 @@
         <v>4.5</v>
       </c>
       <c r="F905" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="G905" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="H905" s="13">
         <v>1</v>
@@ -26378,10 +26428,10 @@
         <v>4.5</v>
       </c>
       <c r="F907" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="G907" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="908" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26401,10 +26451,10 @@
         <v>4.5</v>
       </c>
       <c r="F908" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="G908" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="909" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26424,10 +26474,10 @@
         <v>4.5</v>
       </c>
       <c r="F909" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="G909" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="910" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26447,10 +26497,10 @@
         <v>4.5</v>
       </c>
       <c r="F910" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="G910" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="911" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26498,7 +26548,7 @@
         <v>1</v>
       </c>
       <c r="I913" s="17" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -26532,7 +26582,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="17" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="916" spans="1:9" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -26552,7 +26602,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G916" s="17" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -38436,7 +38486,7 @@
         <v>0</v>
       </c>
       <c r="G1764" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="H1764" s="13">
         <v>1</v>
@@ -38524,5 +38574,6 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
+++ b/Export/WorkingSheetArchive/Fundamentals_DD_wRemaining_Analysis_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/Export/WorkingSheetArchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24FE4461-E747-48D9-A356-1A19B73363A1}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{127AE87D-6D09-4DC4-B1C5-93008C954864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C033CB1-8611-4F15-8626-13D5AD487897}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="3653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="3659">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -10685,9 +10685,6 @@
   </si>
   <si>
     <t>cc3</t>
-  </si>
-  <si>
-    <t>keep -- tied to a key measure</t>
   </si>
   <si>
     <t>Net Income used by the company to calculate Earnings per Share (Diluted) - Excluding.</t>
@@ -10919,9 +10916,6 @@
     <t>https://www.investopedia.com/ask/answers/051115/what-difference-between-earnings-share-eps-and-diluted-eps.asp</t>
   </si>
   <si>
-    <t>Good measure per Tinger -- might be good for restatements</t>
-  </si>
-  <si>
     <t>This item represents the dollar amount of all of a company’s common stock and nonredeemable
 preferred stock held in treasury.</t>
   </si>
@@ -11005,6 +10999,30 @@
   </si>
   <si>
     <t>Per Tinger - Redudant Might be embedded in other numbers</t>
+  </si>
+  <si>
+    <t>ceq and ceql are nearly always the same -- keep 1. Removed due to collineary with top feature ('at').</t>
+  </si>
+  <si>
+    <t>Good measure per Tinger -- might be good for restatements. Removed due to collineary with top feature ('at').</t>
+  </si>
+  <si>
+    <t>Removed due to collineary with top feature ('at').</t>
+  </si>
+  <si>
+    <t>std version was dropped due to collineartity -- median was ketp</t>
+  </si>
+  <si>
+    <t>keep -- tied to a key measure (dropped for collinearity (std version) w/ pi_std)</t>
+  </si>
+  <si>
+    <t>dropped for collinearity (std version) w/ pi_std</t>
+  </si>
+  <si>
+    <t>dropped for collinearity  w/ pi_std</t>
+  </si>
+  <si>
+    <t>(std kept -- median dropped</t>
   </si>
 </sst>
 </file>
@@ -11515,7 +11533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
+      <selection pane="bottomLeft" activeCell="B216" activeCellId="19" sqref="B1:B1048576 B4 B9 B20:B21 B30 B73 B94 B110 B123 B125 B134 B136 B138:B139 B162 B173 B187 B203:B204 B209 B211 B216 B248 B258 B264 B269 B271 B273 B279 B297:B298 B306 B323 B359 B369 B372:B373 B436 B454 B475 B480 B488 B494 B507 B509 B517 B521 B554 B559 B575 B593 B604 B632 B638 B645 B683 B689:B690 B699 B704 B719 B731 B753 B763 B834 B841 B858 B870 B880 B913 B915 B1770:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11551,7 +11569,7 @@
         <v>3520</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="J1" t="s">
         <v>3521</v>
@@ -11801,7 +11819,7 @@
         <v>3527</v>
       </c>
       <c r="G15" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="H15" s="13">
         <v>1</v>
@@ -11827,7 +11845,7 @@
         <v>3527</v>
       </c>
       <c r="G16" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="H16" s="13">
         <v>1</v>
@@ -12239,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>3530</v>
@@ -12436,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>3530</v>
@@ -12611,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>3530</v>
@@ -12914,13 +12932,13 @@
         <v>0</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>3530</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -13111,7 +13129,7 @@
         <v>3530</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="H94" s="4">
         <v>1</v>
@@ -13437,7 +13455,7 @@
         <v>3534</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="H116" s="17">
         <v>1</v>
@@ -13460,7 +13478,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
       <c r="H117" s="17">
         <v>1</v>
@@ -13562,13 +13580,13 @@
         <v>1</v>
       </c>
       <c r="E123" s="17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F123" s="17" t="s">
         <v>3537</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>3538</v>
+        <v>3651</v>
       </c>
       <c r="H123" s="17">
         <v>1</v>
@@ -13820,7 +13838,7 @@
         <v>3539</v>
       </c>
       <c r="G138" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="H138" s="13">
         <v>1</v>
@@ -13849,7 +13867,7 @@
         <v>3539</v>
       </c>
       <c r="G139" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -14269,6 +14287,9 @@
       </c>
       <c r="E162">
         <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>3658</v>
       </c>
     </row>
     <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -15123,16 +15144,16 @@
         <v>1</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="F203" t="s">
         <v>3549</v>
       </c>
       <c r="G203" t="s">
+        <v>3655</v>
+      </c>
+      <c r="I203" t="s">
         <v>3550</v>
-      </c>
-      <c r="I203" t="s">
-        <v>3551</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.3">
@@ -15155,7 +15176,7 @@
         <v>3544</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
@@ -15395,7 +15416,7 @@
         <v>4.5</v>
       </c>
       <c r="F214" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="G214" t="s">
         <v>3542</v>
@@ -15418,7 +15439,7 @@
         <v>4.5</v>
       </c>
       <c r="F215" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="G215" t="s">
         <v>3542</v>
@@ -15441,10 +15462,10 @@
         <v>1</v>
       </c>
       <c r="F216" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="G216" s="4" t="s">
         <v>3554</v>
-      </c>
-      <c r="G216" s="4" t="s">
-        <v>3555</v>
       </c>
       <c r="I216" s="4">
         <v>1</v>
@@ -15579,10 +15600,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
       <c r="H225" s="4">
         <v>1</v>
@@ -15608,10 +15629,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F226" t="s">
+        <v>3553</v>
+      </c>
+      <c r="G226" t="s">
         <v>3554</v>
-      </c>
-      <c r="G226" t="s">
-        <v>3555</v>
       </c>
     </row>
     <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -15743,10 +15764,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F235" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G235" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -15791,19 +15812,19 @@
         <v>0</v>
       </c>
       <c r="E238" s="7" t="s">
+        <v>3556</v>
+      </c>
+      <c r="F238" s="7" t="s">
         <v>3557</v>
       </c>
-      <c r="F238" s="7" t="s">
+      <c r="G238" s="7" t="s">
         <v>3558</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>3559</v>
       </c>
       <c r="I238" s="7">
         <v>1</v>
       </c>
       <c r="J238" s="8" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -15834,13 +15855,13 @@
         <v>0</v>
       </c>
       <c r="E240" s="7" t="s">
+        <v>3556</v>
+      </c>
+      <c r="F240" s="7" t="s">
         <v>3557</v>
       </c>
-      <c r="F240" s="7" t="s">
+      <c r="G240" s="7" t="s">
         <v>3558</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>3559</v>
       </c>
       <c r="H240" s="13">
         <v>1</v>
@@ -15869,7 +15890,7 @@
         <v>3544</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
@@ -15955,7 +15976,7 @@
         <v>3544</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
@@ -15982,10 +16003,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F247" t="s">
+        <v>3562</v>
+      </c>
+      <c r="G247" t="s">
         <v>3563</v>
-      </c>
-      <c r="G247" t="s">
-        <v>3564</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.3">
@@ -16005,10 +16026,10 @@
         <v>5.22</v>
       </c>
       <c r="F248" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="G248" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -16045,7 +16066,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F250" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -16065,7 +16086,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F251" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -16169,10 +16190,10 @@
         <v>5.22</v>
       </c>
       <c r="F258" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="G258" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="H258" s="13">
         <v>1</v>
@@ -16334,10 +16355,10 @@
         <v>4.5</v>
       </c>
       <c r="G268" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I268" t="s">
         <v>3566</v>
-      </c>
-      <c r="I268" t="s">
-        <v>3567</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.3">
@@ -16357,10 +16378,10 @@
         <v>1</v>
       </c>
       <c r="F269" t="s">
+        <v>3567</v>
+      </c>
+      <c r="G269" t="s">
         <v>3568</v>
-      </c>
-      <c r="G269" t="s">
-        <v>3569</v>
       </c>
     </row>
     <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -16380,10 +16401,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F270" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="G270" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.3">
@@ -16403,10 +16424,10 @@
         <v>1</v>
       </c>
       <c r="F271" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="G271" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -16429,10 +16450,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="H272" s="14"/>
       <c r="I272" s="9"/>
@@ -16460,7 +16481,7 @@
         <v>1</v>
       </c>
       <c r="F273" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="H273" s="13">
         <v>1</v>
@@ -16469,7 +16490,7 @@
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16503,10 +16524,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F275" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="G275" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16540,10 +16561,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F277" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="G277" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16648,10 +16669,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F283" t="s">
+        <v>3574</v>
+      </c>
+      <c r="G283" t="s">
         <v>3575</v>
-      </c>
-      <c r="G283" t="s">
-        <v>3576</v>
       </c>
     </row>
     <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16713,10 +16734,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F287" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="G287" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -16848,10 +16869,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F296" t="s">
+        <v>3577</v>
+      </c>
+      <c r="G296" t="s">
         <v>3578</v>
-      </c>
-      <c r="G296" t="s">
-        <v>3579</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -16871,10 +16892,10 @@
         <v>1</v>
       </c>
       <c r="F297" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="G297" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -16891,10 +16912,13 @@
         <v>1</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="F298" t="s">
-        <v>3581</v>
+        <v>3580</v>
+      </c>
+      <c r="G298" t="s">
+        <v>3657</v>
       </c>
     </row>
     <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -16914,10 +16938,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F299" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G299" t="s">
         <v>3581</v>
-      </c>
-      <c r="G299" t="s">
-        <v>3582</v>
       </c>
     </row>
     <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -17024,7 +17048,7 @@
         <v>194</v>
       </c>
       <c r="G306" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -17267,6 +17291,9 @@
       <c r="E323">
         <v>1</v>
       </c>
+      <c r="G323" t="s">
+        <v>3654</v>
+      </c>
       <c r="H323" s="13">
         <v>1</v>
       </c>
@@ -17680,10 +17707,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="G352" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
@@ -17710,10 +17737,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="G353" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
@@ -17754,10 +17781,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="G355" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
@@ -17784,10 +17811,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="G356" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
@@ -17828,10 +17855,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="G358" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
@@ -17855,7 +17882,10 @@
         <v>1</v>
       </c>
       <c r="E359">
-        <v>1</v>
+        <v>7.1</v>
+      </c>
+      <c r="G359" t="s">
+        <v>3653</v>
       </c>
       <c r="H359" s="13">
         <v>1</v>
@@ -18004,7 +18034,7 @@
         <v>1</v>
       </c>
       <c r="F369" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -18024,10 +18054,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F370" t="s">
+        <v>3584</v>
+      </c>
+      <c r="G370" t="s">
         <v>3585</v>
-      </c>
-      <c r="G370" t="s">
-        <v>3586</v>
       </c>
     </row>
     <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -18047,7 +18077,7 @@
         <v>4.3</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="G371" s="4" t="s">
         <v>3531</v>
@@ -18066,13 +18096,15 @@
       <c r="D372">
         <v>1</v>
       </c>
-      <c r="E372" s="4">
-        <v>1</v>
+      <c r="E372">
+        <v>7.1</v>
       </c>
       <c r="F372" s="4" t="s">
-        <v>3587</v>
-      </c>
-      <c r="G372" s="4"/>
+        <v>3586</v>
+      </c>
+      <c r="G372" t="s">
+        <v>3653</v>
+      </c>
       <c r="I372">
         <v>1</v>
       </c>
@@ -18094,7 +18126,7 @@
         <v>1</v>
       </c>
       <c r="F373" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -18212,10 +18244,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F381" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="G381" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -18907,7 +18939,7 @@
         <v>4.3</v>
       </c>
       <c r="F430" s="4" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="G430" s="4" t="s">
         <v>3531</v>
@@ -18931,7 +18963,7 @@
         <v>4.3</v>
       </c>
       <c r="F431" s="4" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="G431" s="4" t="s">
         <v>3531</v>
@@ -18955,7 +18987,7 @@
         <v>4.3</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="G432" s="4" t="s">
         <v>3531</v>
@@ -18979,7 +19011,7 @@
         <v>4.3</v>
       </c>
       <c r="F433" s="4" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="G433" s="4" t="s">
         <v>3531</v>
@@ -19031,10 +19063,10 @@
         <v>1</v>
       </c>
       <c r="F436" s="4" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="G436" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="I436" s="4">
         <v>1</v>
@@ -19071,7 +19103,7 @@
         <v>4.3</v>
       </c>
       <c r="F438" s="4" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="G438" s="4" t="s">
         <v>3531</v>
@@ -19095,7 +19127,7 @@
         <v>4.3</v>
       </c>
       <c r="F439" s="4" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="G439" s="4" t="s">
         <v>3531</v>
@@ -19590,10 +19622,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F473" s="17" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="G473" s="17" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -19627,7 +19659,7 @@
         <v>1</v>
       </c>
       <c r="F475" s="17" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="H475" s="17">
         <v>1</v>
@@ -19692,7 +19724,7 @@
         <v>4.5</v>
       </c>
       <c r="F479" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="G479" t="s">
         <v>3532</v>
@@ -19715,7 +19747,7 @@
         <v>1</v>
       </c>
       <c r="F480" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -19735,10 +19767,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F481" t="s">
+        <v>3591</v>
+      </c>
+      <c r="G481" t="s">
         <v>3592</v>
-      </c>
-      <c r="G481" t="s">
-        <v>3593</v>
       </c>
     </row>
     <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -19828,10 +19860,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F487" t="s">
+        <v>3591</v>
+      </c>
+      <c r="G487" t="s">
         <v>3592</v>
-      </c>
-      <c r="G487" t="s">
-        <v>3593</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
@@ -19851,7 +19883,7 @@
         <v>1</v>
       </c>
       <c r="I488" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -19941,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="F494" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="H494" s="13">
         <v>1</v>
@@ -19964,10 +19996,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F495" t="s">
+        <v>3594</v>
+      </c>
+      <c r="G495" t="s">
         <v>3595</v>
-      </c>
-      <c r="G495" t="s">
-        <v>3596</v>
       </c>
     </row>
     <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -20141,7 +20173,7 @@
         <v>1</v>
       </c>
       <c r="F507" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -20161,10 +20193,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F508" t="s">
+        <v>3596</v>
+      </c>
+      <c r="G508" t="s">
         <v>3597</v>
-      </c>
-      <c r="G508" t="s">
-        <v>3598</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.3">
@@ -20184,7 +20216,7 @@
         <v>1</v>
       </c>
       <c r="G509" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -20302,10 +20334,10 @@
         <v>1</v>
       </c>
       <c r="F517" t="s">
+        <v>3599</v>
+      </c>
+      <c r="G517" t="s">
         <v>3600</v>
-      </c>
-      <c r="G517" t="s">
-        <v>3601</v>
       </c>
     </row>
     <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -20339,10 +20371,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F519" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="G519" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="H519" s="13">
         <v>1</v>
@@ -20365,10 +20397,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F520" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="G520" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.3">
@@ -20388,10 +20420,10 @@
         <v>1</v>
       </c>
       <c r="F521" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="G521" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -20495,10 +20527,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F528" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="G528" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -20941,7 +20973,7 @@
         <v>1</v>
       </c>
       <c r="F559" s="4" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="G559" s="4"/>
     </row>
@@ -20962,7 +20994,7 @@
         <v>4.3</v>
       </c>
       <c r="F560" s="4" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="G560" s="4" t="s">
         <v>3531</v>
@@ -20985,7 +21017,7 @@
         <v>4.3</v>
       </c>
       <c r="F561" s="4" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="G561" s="4" t="s">
         <v>3531</v>
@@ -21148,10 +21180,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F572" t="s">
+        <v>3605</v>
+      </c>
+      <c r="G572" t="s">
         <v>3606</v>
-      </c>
-      <c r="G572" t="s">
-        <v>3607</v>
       </c>
     </row>
     <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21199,10 +21231,10 @@
         <v>1</v>
       </c>
       <c r="F575" t="s">
+        <v>3607</v>
+      </c>
+      <c r="I575" t="s">
         <v>3608</v>
-      </c>
-      <c r="I575" t="s">
-        <v>3609</v>
       </c>
     </row>
     <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -21320,10 +21352,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F583" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="G583" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="H583" s="13">
         <v>1</v>
@@ -21472,7 +21504,7 @@
         <v>1</v>
       </c>
       <c r="F593" s="4" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="G593" s="4"/>
     </row>
@@ -21493,7 +21525,7 @@
         <v>4.3</v>
       </c>
       <c r="F594" s="4" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="G594" s="4" t="s">
         <v>3531</v>
@@ -21516,7 +21548,7 @@
         <v>4.3</v>
       </c>
       <c r="F595" s="4" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="G595" s="4" t="s">
         <v>3531</v>
@@ -21581,10 +21613,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F599" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="G599" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -21604,7 +21636,7 @@
         <v>4.5</v>
       </c>
       <c r="F600" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="G600" t="s">
         <v>3532</v>
@@ -21669,7 +21701,7 @@
         <v>4.5</v>
       </c>
       <c r="F604" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="H604" s="13">
         <v>1</v>
@@ -21748,10 +21780,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F609" t="s">
+        <v>3612</v>
+      </c>
+      <c r="G609" t="s">
         <v>3613</v>
-      </c>
-      <c r="G609" t="s">
-        <v>3614</v>
       </c>
     </row>
     <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -22079,10 +22111,10 @@
         <v>1</v>
       </c>
       <c r="F632" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="G632" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="H632" s="13">
         <v>1</v>
@@ -22102,13 +22134,13 @@
         <v>0</v>
       </c>
       <c r="E633" s="4" t="s">
+        <v>3614</v>
+      </c>
+      <c r="F633" t="s">
+        <v>3583</v>
+      </c>
+      <c r="G633" s="4" t="s">
         <v>3615</v>
-      </c>
-      <c r="F633" t="s">
-        <v>3584</v>
-      </c>
-      <c r="G633" s="4" t="s">
-        <v>3616</v>
       </c>
       <c r="I633">
         <v>1</v>
@@ -22128,13 +22160,13 @@
         <v>0</v>
       </c>
       <c r="E634" s="4" t="s">
+        <v>3614</v>
+      </c>
+      <c r="F634" t="s">
+        <v>3583</v>
+      </c>
+      <c r="G634" s="4" t="s">
         <v>3615</v>
-      </c>
-      <c r="F634" t="s">
-        <v>3584</v>
-      </c>
-      <c r="G634" s="4" t="s">
-        <v>3616</v>
       </c>
       <c r="I634">
         <v>1</v>
@@ -22222,13 +22254,13 @@
         <v>0</v>
       </c>
       <c r="E639" s="4" t="s">
+        <v>3614</v>
+      </c>
+      <c r="F639" t="s">
+        <v>3583</v>
+      </c>
+      <c r="G639" s="4" t="s">
         <v>3615</v>
-      </c>
-      <c r="F639" t="s">
-        <v>3584</v>
-      </c>
-      <c r="G639" s="4" t="s">
-        <v>3616</v>
       </c>
       <c r="I639">
         <v>1</v>
@@ -22296,7 +22328,7 @@
         <v>4.2</v>
       </c>
       <c r="F643" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -22330,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="G645" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="H645" s="13">
         <v>1</v>
@@ -22762,7 +22794,7 @@
         <v>4.2</v>
       </c>
       <c r="G675" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="H675" s="13">
         <v>1</v>
@@ -22880,10 +22912,13 @@
         <v>1</v>
       </c>
       <c r="E683">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="F683" t="s">
-        <v>3619</v>
+        <v>3618</v>
+      </c>
+      <c r="G683" t="s">
+        <v>3653</v>
       </c>
     </row>
     <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -22903,10 +22938,10 @@
         <v>4.5</v>
       </c>
       <c r="F684" t="s">
+        <v>3618</v>
+      </c>
+      <c r="G684" t="s">
         <v>3619</v>
-      </c>
-      <c r="G684" t="s">
-        <v>3620</v>
       </c>
     </row>
     <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -22999,10 +23034,13 @@
         <v>1</v>
       </c>
       <c r="E690" s="4">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="F690" s="4" t="s">
-        <v>3621</v>
+        <v>3620</v>
+      </c>
+      <c r="G690" t="s">
+        <v>3656</v>
       </c>
       <c r="H690" s="13">
         <v>1</v>
@@ -23028,13 +23066,13 @@
         <v>4.2</v>
       </c>
       <c r="F691" s="4" t="s">
+        <v>3620</v>
+      </c>
+      <c r="G691" s="4" t="s">
         <v>3621</v>
       </c>
-      <c r="G691" s="4" t="s">
+      <c r="J691" t="s">
         <v>3622</v>
-      </c>
-      <c r="J691" t="s">
-        <v>3623</v>
       </c>
     </row>
     <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -23054,10 +23092,10 @@
         <v>4.2</v>
       </c>
       <c r="F692" s="4" t="s">
+        <v>3620</v>
+      </c>
+      <c r="G692" s="4" t="s">
         <v>3621</v>
-      </c>
-      <c r="G692" s="4" t="s">
-        <v>3622</v>
       </c>
     </row>
     <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -23450,10 +23488,10 @@
         <v>1</v>
       </c>
       <c r="E719">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="G719" t="s">
-        <v>3624</v>
+        <v>3652</v>
       </c>
       <c r="H719" s="13">
         <v>1</v>
@@ -23613,7 +23651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -23630,7 +23668,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="11" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="H731" s="15">
         <v>1</v>
@@ -23723,7 +23761,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F737" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23743,7 +23781,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F738" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23777,10 +23815,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F740" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="G740" s="20" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23800,7 +23838,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F741" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23820,7 +23858,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F742" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23840,7 +23878,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F743" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23860,7 +23898,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F744" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23908,7 +23946,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F747" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23928,10 +23966,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F748" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="G748" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -24007,10 +24045,10 @@
         <v>6.11</v>
       </c>
       <c r="F753" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="G753" s="20" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24030,10 +24068,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F754" s="4" t="s">
+        <v>3624</v>
+      </c>
+      <c r="G754" t="s">
         <v>3626</v>
-      </c>
-      <c r="G754" t="s">
-        <v>3628</v>
       </c>
     </row>
     <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24053,10 +24091,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F755" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="G755" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24076,10 +24114,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F756" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="G756" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24113,7 +24151,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F758" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24133,7 +24171,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F759" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24153,7 +24191,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F760" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24173,7 +24211,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F761" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24207,7 +24245,7 @@
         <v>6.11</v>
       </c>
       <c r="F763" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="H763" s="13">
         <v>1</v>
@@ -24440,10 +24478,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F779" s="4" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="G779" s="20" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="H779" s="13">
         <v>1</v>
@@ -25191,7 +25229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -25205,7 +25243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -25222,7 +25260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -25236,7 +25274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -25250,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -25264,7 +25302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -25278,7 +25316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -25292,7 +25330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -25306,7 +25344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -25320,10 +25358,13 @@
         <v>1</v>
       </c>
       <c r="E841">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>7.1</v>
+      </c>
+      <c r="G841" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -25337,7 +25378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -25351,7 +25392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -25365,7 +25406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -25379,7 +25420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -25393,7 +25434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -25407,7 +25448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -25480,7 +25521,7 @@
         <v>4.3</v>
       </c>
       <c r="F852" s="4" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="G852" s="4" t="s">
         <v>3531</v>
@@ -25510,7 +25551,7 @@
         <v>4.3</v>
       </c>
       <c r="F853" s="4" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="G853" s="4" t="s">
         <v>3531</v>
@@ -25596,7 +25637,7 @@
         <v>1</v>
       </c>
       <c r="F858" s="4" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="G858" s="4"/>
       <c r="H858" s="13">
@@ -25924,7 +25965,10 @@
         <v>1</v>
       </c>
       <c r="E880">
-        <v>1</v>
+        <v>7.1</v>
+      </c>
+      <c r="G880" t="s">
+        <v>3653</v>
       </c>
     </row>
     <row r="881" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -26163,7 +26207,7 @@
         <v>3</v>
       </c>
       <c r="G896" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="897" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26184,7 +26228,7 @@
       </c>
       <c r="F897" s="6"/>
       <c r="G897" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="I897" s="6"/>
       <c r="J897" s="6"/>
@@ -26212,7 +26256,7 @@
       </c>
       <c r="F898" s="6"/>
       <c r="G898" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="I898" s="6"/>
       <c r="J898" s="6"/>
@@ -26239,7 +26283,7 @@
         <v>3</v>
       </c>
       <c r="G899" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="900" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26259,7 +26303,7 @@
         <v>3</v>
       </c>
       <c r="G900" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="H900" s="13">
         <v>1</v>
@@ -26282,7 +26326,7 @@
         <v>3</v>
       </c>
       <c r="G901" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="H901" s="13">
         <v>1</v>
@@ -26305,7 +26349,7 @@
         <v>3</v>
       </c>
       <c r="G902" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="903" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26325,10 +26369,10 @@
         <v>4.5</v>
       </c>
       <c r="F903" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="G903" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="904" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26348,10 +26392,10 @@
         <v>4.5</v>
       </c>
       <c r="F904" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="G904" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="H904" s="13">
         <v>1</v>
@@ -26381,10 +26425,10 @@
         <v>4.5</v>
       </c>
       <c r="F905" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="G905" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="H905" s="13">
         <v>1</v>
@@ -26428,10 +26472,10 @@
         <v>4.5</v>
       </c>
       <c r="F907" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="G907" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="908" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26451,10 +26495,10 @@
         <v>4.5</v>
       </c>
       <c r="F908" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="G908" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="909" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26474,10 +26518,10 @@
         <v>4.5</v>
       </c>
       <c r="F909" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="G909" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="910" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26497,10 +26541,10 @@
         <v>4.5</v>
       </c>
       <c r="F910" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="G910" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="911" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -26548,7 +26592,7 @@
         <v>1</v>
       </c>
       <c r="I913" s="17" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -26582,7 +26626,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="17" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="916" spans="1:9" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -26602,7 +26646,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G916" s="17" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -38486,7 +38530,7 @@
         <v>0</v>
       </c>
       <c r="G1764" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="H1764" s="13">
         <v>1</v>
